--- a/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK184"/>
+  <dimension ref="A1:BK190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT6" t="n">
         <v>1</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT7" t="n">
         <v>1.42</v>
@@ -2324,7 +2324,7 @@
         <v>1.67</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT10" t="n">
         <v>2.25</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT12" t="n">
         <v>1.58</v>
@@ -3136,7 +3136,7 @@
         <v>2.55</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.67</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU19" t="n">
         <v>1.54</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT20" t="n">
         <v>1.42</v>
@@ -5369,7 +5369,7 @@
         <v>2.5</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU24" t="n">
         <v>1.45</v>
@@ -5775,7 +5775,7 @@
         <v>1.67</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU26" t="n">
         <v>1.7</v>
@@ -5975,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU27" t="n">
         <v>1.24</v>
@@ -6178,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU28" t="n">
         <v>2.89</v>
@@ -6384,7 +6384,7 @@
         <v>1.67</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU29" t="n">
         <v>1.53</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT32" t="n">
         <v>1.27</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT33" t="n">
         <v>1.36</v>
@@ -7599,10 +7599,10 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU35" t="n">
         <v>1.69</v>
@@ -7802,7 +7802,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT36" t="n">
         <v>1</v>
@@ -8005,7 +8005,7 @@
         <v>2</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT37" t="n">
         <v>1.42</v>
@@ -8211,7 +8211,7 @@
         <v>1.5</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU38" t="n">
         <v>0.97</v>
@@ -9023,7 +9023,7 @@
         <v>1.67</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU42" t="n">
         <v>1.72</v>
@@ -9426,10 +9426,10 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU44" t="n">
         <v>1.3</v>
@@ -9629,7 +9629,7 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT45" t="n">
         <v>1.27</v>
@@ -10038,7 +10038,7 @@
         <v>1.18</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU47" t="n">
         <v>1.05</v>
@@ -10647,7 +10647,7 @@
         <v>1.67</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU50" t="n">
         <v>1.66</v>
@@ -10847,10 +10847,10 @@
         <v>0.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU51" t="n">
         <v>1.59</v>
@@ -11053,7 +11053,7 @@
         <v>1.36</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU52" t="n">
         <v>1.4</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT53" t="n">
         <v>1.42</v>
@@ -11456,7 +11456,7 @@
         <v>0.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT54" t="n">
         <v>1.42</v>
@@ -11662,7 +11662,7 @@
         <v>0.75</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU55" t="n">
         <v>1.94</v>
@@ -11862,7 +11862,7 @@
         <v>1.67</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT56" t="n">
         <v>1.42</v>
@@ -12065,7 +12065,7 @@
         <v>0.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT57" t="n">
         <v>1.27</v>
@@ -12474,7 +12474,7 @@
         <v>1.67</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU59" t="n">
         <v>1.48</v>
@@ -12677,7 +12677,7 @@
         <v>1</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU60" t="n">
         <v>1.96</v>
@@ -13080,7 +13080,7 @@
         <v>0.75</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT62" t="n">
         <v>0.92</v>
@@ -13895,7 +13895,7 @@
         <v>1.67</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU66" t="n">
         <v>1.56</v>
@@ -14298,10 +14298,10 @@
         <v>1.25</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU68" t="n">
         <v>1.53</v>
@@ -14501,10 +14501,10 @@
         <v>0.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU69" t="n">
         <v>1.63</v>
@@ -14704,10 +14704,10 @@
         <v>0.25</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU70" t="n">
         <v>1.71</v>
@@ -14907,7 +14907,7 @@
         <v>1.25</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT71" t="n">
         <v>1.27</v>
@@ -15722,7 +15722,7 @@
         <v>1.18</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU75" t="n">
         <v>1.45</v>
@@ -16125,7 +16125,7 @@
         <v>1.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT77" t="n">
         <v>1.27</v>
@@ -16331,7 +16331,7 @@
         <v>2.5</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU78" t="n">
         <v>1.72</v>
@@ -16531,7 +16531,7 @@
         <v>0.75</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT79" t="n">
         <v>1.36</v>
@@ -16737,7 +16737,7 @@
         <v>1.67</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU80" t="n">
         <v>1.37</v>
@@ -16937,7 +16937,7 @@
         <v>0.75</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT81" t="n">
         <v>1.42</v>
@@ -17343,7 +17343,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT83" t="n">
         <v>1.36</v>
@@ -17749,7 +17749,7 @@
         <v>0.6</v>
       </c>
       <c r="AS85" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT85" t="n">
         <v>0.92</v>
@@ -18361,7 +18361,7 @@
         <v>0.75</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU88" t="n">
         <v>1.91</v>
@@ -18561,10 +18561,10 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU89" t="n">
         <v>1.6</v>
@@ -18764,7 +18764,7 @@
         <v>0.2</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT90" t="n">
         <v>1</v>
@@ -18967,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT91" t="n">
         <v>1.27</v>
@@ -19170,7 +19170,7 @@
         <v>2</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT92" t="n">
         <v>1.58</v>
@@ -19376,7 +19376,7 @@
         <v>1.67</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU93" t="n">
         <v>1.5</v>
@@ -19579,7 +19579,7 @@
         <v>2.55</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU94" t="n">
         <v>1.92</v>
@@ -19985,7 +19985,7 @@
         <v>1.5</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU96" t="n">
         <v>1.47</v>
@@ -21000,7 +21000,7 @@
         <v>1.18</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU101" t="n">
         <v>1.51</v>
@@ -21200,7 +21200,7 @@
         <v>2.17</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT102" t="n">
         <v>2.25</v>
@@ -21403,7 +21403,7 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT103" t="n">
         <v>1.42</v>
@@ -21609,7 +21609,7 @@
         <v>2.5</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU104" t="n">
         <v>1.59</v>
@@ -22012,7 +22012,7 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT106" t="n">
         <v>1.27</v>
@@ -22215,10 +22215,10 @@
         <v>1</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU107" t="n">
         <v>1.77</v>
@@ -22421,7 +22421,7 @@
         <v>1.5</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU108" t="n">
         <v>1.43</v>
@@ -22624,7 +22624,7 @@
         <v>2.55</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU109" t="n">
         <v>2.04</v>
@@ -22824,7 +22824,7 @@
         <v>1.17</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT110" t="n">
         <v>1.42</v>
@@ -23027,10 +23027,10 @@
         <v>0.83</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU111" t="n">
         <v>1.57</v>
@@ -23636,7 +23636,7 @@
         <v>1.29</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT114" t="n">
         <v>1.36</v>
@@ -24451,7 +24451,7 @@
         <v>1.36</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU118" t="n">
         <v>1.33</v>
@@ -24854,10 +24854,10 @@
         <v>0.57</v>
       </c>
       <c r="AS120" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU120" t="n">
         <v>1.28</v>
@@ -25057,7 +25057,7 @@
         <v>1.86</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT121" t="n">
         <v>1.27</v>
@@ -25263,7 +25263,7 @@
         <v>1.67</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU122" t="n">
         <v>1.88</v>
@@ -25466,7 +25466,7 @@
         <v>1.67</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU123" t="n">
         <v>1.37</v>
@@ -25669,7 +25669,7 @@
         <v>1.18</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU124" t="n">
         <v>1.49</v>
@@ -25869,7 +25869,7 @@
         <v>2</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT125" t="n">
         <v>1.58</v>
@@ -26072,7 +26072,7 @@
         <v>2.29</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT126" t="n">
         <v>2.25</v>
@@ -26278,7 +26278,7 @@
         <v>2.55</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU127" t="n">
         <v>2.08</v>
@@ -26681,10 +26681,10 @@
         <v>0.86</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU129" t="n">
         <v>1.75</v>
@@ -26887,7 +26887,7 @@
         <v>1.5</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU130" t="n">
         <v>1.49</v>
@@ -27290,7 +27290,7 @@
         <v>1.75</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT132" t="n">
         <v>1.42</v>
@@ -27493,7 +27493,7 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT133" t="n">
         <v>1.27</v>
@@ -27899,10 +27899,10 @@
         <v>0.75</v>
       </c>
       <c r="AS135" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU135" t="n">
         <v>1.27</v>
@@ -28102,7 +28102,7 @@
         <v>1.25</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT136" t="n">
         <v>1.42</v>
@@ -28511,7 +28511,7 @@
         <v>1</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU138" t="n">
         <v>1.76</v>
@@ -28714,7 +28714,7 @@
         <v>1.67</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU139" t="n">
         <v>1.55</v>
@@ -28914,10 +28914,10 @@
         <v>1.25</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU140" t="n">
         <v>1.49</v>
@@ -29117,7 +29117,7 @@
         <v>1.75</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT141" t="n">
         <v>1.58</v>
@@ -29729,7 +29729,7 @@
         <v>2.5</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU144" t="n">
         <v>1.69</v>
@@ -30335,7 +30335,7 @@
         <v>1.56</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT147" t="n">
         <v>1.42</v>
@@ -31756,10 +31756,10 @@
         <v>0.67</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU154" t="n">
         <v>1.63</v>
@@ -31959,10 +31959,10 @@
         <v>1.44</v>
       </c>
       <c r="AS155" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU155" t="n">
         <v>1.34</v>
@@ -32162,10 +32162,10 @@
         <v>0.78</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU156" t="n">
         <v>1.58</v>
@@ -32365,10 +32365,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU157" t="n">
         <v>1.5</v>
@@ -32774,7 +32774,7 @@
         <v>2.5</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU159" t="n">
         <v>1.67</v>
@@ -32974,10 +32974,10 @@
         <v>1.56</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU160" t="n">
         <v>1.74</v>
@@ -33786,7 +33786,7 @@
         <v>1</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT164" t="n">
         <v>0.92</v>
@@ -35004,10 +35004,10 @@
         <v>1.5</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU170" t="n">
         <v>1.57</v>
@@ -35207,7 +35207,7 @@
         <v>1.2</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT171" t="n">
         <v>1.36</v>
@@ -35410,10 +35410,10 @@
         <v>0.6</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU172" t="n">
         <v>1.46</v>
@@ -35613,7 +35613,7 @@
         <v>1.3</v>
       </c>
       <c r="AS173" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT173" t="n">
         <v>1.27</v>
@@ -35816,10 +35816,10 @@
         <v>1.3</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU174" t="n">
         <v>1.69</v>
@@ -36022,7 +36022,7 @@
         <v>2.55</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU175" t="n">
         <v>2.18</v>
@@ -36225,7 +36225,7 @@
         <v>2.5</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU176" t="n">
         <v>1.77</v>
@@ -36428,7 +36428,7 @@
         <v>1.18</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU177" t="n">
         <v>1.58</v>
@@ -37901,6 +37901,1224 @@
       </c>
       <c r="BK184" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>2593472</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>45037.54861111111</v>
+      </c>
+      <c r="F185" t="n">
+        <v>24</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Floridsdorfer AC</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Liefering</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
+      <c r="K185" t="n">
+        <v>2</v>
+      </c>
+      <c r="L185" t="n">
+        <v>3</v>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="n">
+        <v>4</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>['41', '52', '79']</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="Q185" t="n">
+        <v>4</v>
+      </c>
+      <c r="R185" t="n">
+        <v>2</v>
+      </c>
+      <c r="S185" t="n">
+        <v>6</v>
+      </c>
+      <c r="T185" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U185" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V185" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W185" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X185" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ185" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BF185" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG185" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH185" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ185" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>2593468</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45037.54861111111</v>
+      </c>
+      <c r="F186" t="n">
+        <v>24</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Amstetten</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Sturm Graz II</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" t="n">
+        <v>5</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N186" t="n">
+        <v>5</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>['-1', '-1', '-1', '-1', '-1']</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>14</v>
+      </c>
+      <c r="R186" t="n">
+        <v>7</v>
+      </c>
+      <c r="S186" t="n">
+        <v>21</v>
+      </c>
+      <c r="T186" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U186" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V186" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X186" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>2593471</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45037.54861111111</v>
+      </c>
+      <c r="F187" t="n">
+        <v>24</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Horn</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Austria Wien II</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="n">
+        <v>2</v>
+      </c>
+      <c r="N187" t="n">
+        <v>3</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>['51', '59']</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>5</v>
+      </c>
+      <c r="R187" t="n">
+        <v>2</v>
+      </c>
+      <c r="S187" t="n">
+        <v>7</v>
+      </c>
+      <c r="T187" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U187" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V187" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X187" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2593473</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45037.54861111111</v>
+      </c>
+      <c r="F188" t="n">
+        <v>24</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Kapfenberger SV</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>First Vienna</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
+        <v>3</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N188" t="n">
+        <v>3</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>['48', '74', '88']</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>5</v>
+      </c>
+      <c r="R188" t="n">
+        <v>5</v>
+      </c>
+      <c r="S188" t="n">
+        <v>10</v>
+      </c>
+      <c r="T188" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U188" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V188" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X188" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>2593474</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45037.54861111111</v>
+      </c>
+      <c r="F189" t="n">
+        <v>24</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Rapid Wien II</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Vorwärts Steyr</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="n">
+        <v>2</v>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="n">
+        <v>3</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>['8', '75']</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>3</v>
+      </c>
+      <c r="R189" t="n">
+        <v>6</v>
+      </c>
+      <c r="S189" t="n">
+        <v>9</v>
+      </c>
+      <c r="T189" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U189" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V189" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X189" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>2593475</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>45037.64583333334</v>
+      </c>
+      <c r="F190" t="n">
+        <v>24</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>St. Pölten</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Admira</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="n">
+        <v>2</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0</v>
+      </c>
+      <c r="N190" t="n">
+        <v>2</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>['9', '88']</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>4</v>
+      </c>
+      <c r="R190" t="n">
+        <v>6</v>
+      </c>
+      <c r="S190" t="n">
+        <v>10</v>
+      </c>
+      <c r="T190" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U190" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V190" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X190" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ190" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA190" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB190" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC190" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD190" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BE190" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF190" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG190" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH190" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI190" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ190" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK190" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK190"/>
+  <dimension ref="A1:BK192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,7 +1918,7 @@
         <v>1.83</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT9" t="n">
         <v>0.5</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -3339,7 +3339,7 @@
         <v>1.67</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT22" t="n">
         <v>1.42</v>
@@ -5166,7 +5166,7 @@
         <v>1.36</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU23" t="n">
         <v>1.4</v>
@@ -6787,10 +6787,10 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU31" t="n">
         <v>2.17</v>
@@ -8411,10 +8411,10 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU39" t="n">
         <v>1.49</v>
@@ -8820,7 +8820,7 @@
         <v>1.36</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU41" t="n">
         <v>1.51</v>
@@ -10441,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT49" t="n">
         <v>0.92</v>
@@ -10644,7 +10644,7 @@
         <v>1.67</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT50" t="n">
         <v>1.25</v>
@@ -11459,7 +11459,7 @@
         <v>1.42</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU54" t="n">
         <v>1.09</v>
@@ -12068,7 +12068,7 @@
         <v>1.17</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU57" t="n">
         <v>1.55</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT61" t="n">
         <v>1.36</v>
@@ -13892,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT66" t="n">
         <v>1</v>
@@ -14095,7 +14095,7 @@
         <v>1.75</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT67" t="n">
         <v>2.25</v>
@@ -14910,7 +14910,7 @@
         <v>1.42</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU71" t="n">
         <v>1.52</v>
@@ -15113,7 +15113,7 @@
         <v>1.67</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU72" t="n">
         <v>1.86</v>
@@ -17143,7 +17143,7 @@
         <v>1</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU82" t="n">
         <v>1.93</v>
@@ -18970,7 +18970,7 @@
         <v>1.83</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU91" t="n">
         <v>1.91</v>
@@ -19373,7 +19373,7 @@
         <v>0.2</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT93" t="n">
         <v>0.83</v>
@@ -19576,7 +19576,7 @@
         <v>0.4</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT94" t="n">
         <v>0.58</v>
@@ -19782,7 +19782,7 @@
         <v>1.67</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU95" t="n">
         <v>1.34</v>
@@ -22015,7 +22015,7 @@
         <v>1.67</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU106" t="n">
         <v>1.56</v>
@@ -22621,7 +22621,7 @@
         <v>0.67</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT109" t="n">
         <v>0.83</v>
@@ -22827,7 +22827,7 @@
         <v>1.42</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU110" t="n">
         <v>1.48</v>
@@ -23230,7 +23230,7 @@
         <v>2.17</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT112" t="n">
         <v>1.58</v>
@@ -24654,7 +24654,7 @@
         <v>2.5</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU119" t="n">
         <v>1.54</v>
@@ -25463,7 +25463,7 @@
         <v>1.43</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT123" t="n">
         <v>1.33</v>
@@ -26275,7 +26275,7 @@
         <v>1.57</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT127" t="n">
         <v>1.25</v>
@@ -27496,7 +27496,7 @@
         <v>1.67</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU133" t="n">
         <v>1.61</v>
@@ -28105,7 +28105,7 @@
         <v>1.67</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU136" t="n">
         <v>1.45</v>
@@ -28711,7 +28711,7 @@
         <v>0.63</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT139" t="n">
         <v>0.58</v>
@@ -29320,7 +29320,7 @@
         <v>0.63</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT142" t="n">
         <v>1</v>
@@ -30538,7 +30538,7 @@
         <v>1.67</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT148" t="n">
         <v>1.42</v>
@@ -31150,7 +31150,7 @@
         <v>1.5</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU151" t="n">
         <v>1.49</v>
@@ -31556,7 +31556,7 @@
         <v>0.75</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU153" t="n">
         <v>1.93</v>
@@ -33177,7 +33177,7 @@
         <v>1.44</v>
       </c>
       <c r="AS161" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT161" t="n">
         <v>1.27</v>
@@ -33383,7 +33383,7 @@
         <v>0.75</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU162" t="n">
         <v>1.89</v>
@@ -34192,7 +34192,7 @@
         <v>2.5</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT166" t="n">
         <v>2.25</v>
@@ -34398,7 +34398,7 @@
         <v>1.5</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU167" t="n">
         <v>1.41</v>
@@ -36019,7 +36019,7 @@
         <v>0.6</v>
       </c>
       <c r="AS175" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT175" t="n">
         <v>0.5</v>
@@ -36628,7 +36628,7 @@
         <v>1</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT178" t="n">
         <v>0.92</v>
@@ -37240,7 +37240,7 @@
         <v>1</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU181" t="n">
         <v>1.59</v>
@@ -39119,6 +39119,412 @@
       </c>
       <c r="BK190" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>2593470</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>45038.39583333334</v>
+      </c>
+      <c r="F191" t="n">
+        <v>24</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Blau-Weiß Linz</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Dornbirn</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N191" t="n">
+        <v>1</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>10</v>
+      </c>
+      <c r="R191" t="n">
+        <v>3</v>
+      </c>
+      <c r="S191" t="n">
+        <v>13</v>
+      </c>
+      <c r="T191" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U191" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V191" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X191" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BF191" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG191" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH191" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ191" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK191" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>2593469</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>45039.22916666666</v>
+      </c>
+      <c r="F192" t="n">
+        <v>24</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Lafnitz</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Grazer AK</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
+      </c>
+      <c r="J192" t="n">
+        <v>2</v>
+      </c>
+      <c r="K192" t="n">
+        <v>3</v>
+      </c>
+      <c r="L192" t="n">
+        <v>2</v>
+      </c>
+      <c r="M192" t="n">
+        <v>3</v>
+      </c>
+      <c r="N192" t="n">
+        <v>5</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>['2', '90+3']</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>['9', '19', '53']</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>6</v>
+      </c>
+      <c r="R192" t="n">
+        <v>4</v>
+      </c>
+      <c r="S192" t="n">
+        <v>10</v>
+      </c>
+      <c r="T192" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U192" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V192" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X192" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BA192" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF192" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG192" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH192" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ192" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK192" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
@@ -38140,13 +38140,13 @@
         </is>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J186" t="n">
         <v>0</v>
       </c>
       <c r="K186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L186" t="n">
         <v>5</v>
@@ -38159,7 +38159,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>['-1', '-1', '-1', '-1', '-1']</t>
+          <t>['5', '42', '71', '77', '89']</t>
         </is>
       </c>
       <c r="P186" t="inlineStr">

--- a/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK192"/>
+  <dimension ref="A1:BK193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT3" t="n">
         <v>0.92</v>
@@ -2730,7 +2730,7 @@
         <v>1.18</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT23" t="n">
         <v>1.31</v>
@@ -6993,7 +6993,7 @@
         <v>1.42</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU32" t="n">
         <v>1.08</v>
@@ -8817,7 +8817,7 @@
         <v>0.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT41" t="n">
         <v>1.42</v>
@@ -9632,7 +9632,7 @@
         <v>1.42</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU45" t="n">
         <v>1.66</v>
@@ -11050,7 +11050,7 @@
         <v>0.67</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT52" t="n">
         <v>0.5</v>
@@ -13692,7 +13692,7 @@
         <v>1.5</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU65" t="n">
         <v>1.21</v>
@@ -15922,7 +15922,7 @@
         <v>1.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT76" t="n">
         <v>1.58</v>
@@ -16128,7 +16128,7 @@
         <v>1.83</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU77" t="n">
         <v>1.92</v>
@@ -17546,7 +17546,7 @@
         <v>2</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT84" t="n">
         <v>2.25</v>
@@ -20188,7 +20188,7 @@
         <v>0.75</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU97" t="n">
         <v>1.92</v>
@@ -20594,7 +20594,7 @@
         <v>1</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU99" t="n">
         <v>1.84</v>
@@ -20794,7 +20794,7 @@
         <v>1.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT100" t="n">
         <v>1.36</v>
@@ -24448,7 +24448,7 @@
         <v>1.17</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT118" t="n">
         <v>1.33</v>
@@ -25060,7 +25060,7 @@
         <v>1.67</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU121" t="n">
         <v>1.55</v>
@@ -27696,7 +27696,7 @@
         <v>1.5</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT134" t="n">
         <v>1.42</v>
@@ -29932,7 +29932,7 @@
         <v>1.67</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU145" t="n">
         <v>1.87</v>
@@ -30132,7 +30132,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT146" t="n">
         <v>1</v>
@@ -33180,7 +33180,7 @@
         <v>2.58</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU161" t="n">
         <v>2.14</v>
@@ -33583,7 +33583,7 @@
         <v>1.4</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT163" t="n">
         <v>1.42</v>
@@ -35616,7 +35616,7 @@
         <v>1.17</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU173" t="n">
         <v>1.4</v>
@@ -39525,6 +39525,209 @@
       </c>
       <c r="BK192" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>2593462</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>45041.5625</v>
+      </c>
+      <c r="F193" t="n">
+        <v>23</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Vorwärts Steyr</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Amstetten</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="n">
+        <v>2</v>
+      </c>
+      <c r="M193" t="n">
+        <v>3</v>
+      </c>
+      <c r="N193" t="n">
+        <v>5</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>['25', '66']</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>['50', '52', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>8</v>
+      </c>
+      <c r="R193" t="n">
+        <v>6</v>
+      </c>
+      <c r="S193" t="n">
+        <v>14</v>
+      </c>
+      <c r="T193" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U193" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V193" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X193" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BF193" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG193" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH193" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ193" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK193" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK193"/>
+  <dimension ref="A1:BK199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.67</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT5" t="n">
         <v>0.83</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT8" t="n">
         <v>1.42</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT10" t="n">
         <v>2.25</v>
@@ -2730,7 +2730,7 @@
         <v>1.18</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.17</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT14" t="n">
         <v>1.42</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT15" t="n">
         <v>1.25</v>
@@ -3745,7 +3745,7 @@
         <v>0.75</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT18" t="n">
         <v>1</v>
@@ -4557,7 +4557,7 @@
         <v>1.67</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU20" t="n">
         <v>1.86</v>
@@ -4757,7 +4757,7 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT21" t="n">
         <v>2.25</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT24" t="n">
         <v>0.83</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT26" t="n">
         <v>1</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT27" t="n">
         <v>0.58</v>
@@ -6181,7 +6181,7 @@
         <v>1.83</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU28" t="n">
         <v>2.89</v>
@@ -6587,7 +6587,7 @@
         <v>1.18</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU30" t="n">
         <v>0.91</v>
@@ -6990,10 +6990,10 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU32" t="n">
         <v>1.08</v>
@@ -7196,7 +7196,7 @@
         <v>1.17</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU33" t="n">
         <v>1.72</v>
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT34" t="n">
         <v>0.92</v>
@@ -8208,7 +8208,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT38" t="n">
         <v>0.5</v>
@@ -8617,7 +8617,7 @@
         <v>0.75</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU40" t="n">
         <v>2.12</v>
@@ -9023,7 +9023,7 @@
         <v>1.67</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU42" t="n">
         <v>1.72</v>
@@ -9223,10 +9223,10 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU43" t="n">
         <v>2.14</v>
@@ -9629,10 +9629,10 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU45" t="n">
         <v>1.66</v>
@@ -9832,7 +9832,7 @@
         <v>2</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT46" t="n">
         <v>2.25</v>
@@ -10238,10 +10238,10 @@
         <v>1.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU48" t="n">
         <v>1.91</v>
@@ -11256,7 +11256,7 @@
         <v>1.67</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU53" t="n">
         <v>1.9</v>
@@ -11456,7 +11456,7 @@
         <v>0.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT54" t="n">
         <v>1.31</v>
@@ -12471,10 +12471,10 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU59" t="n">
         <v>1.48</v>
@@ -12674,7 +12674,7 @@
         <v>0.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT60" t="n">
         <v>0.58</v>
@@ -12880,7 +12880,7 @@
         <v>2.58</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU61" t="n">
         <v>1.89</v>
@@ -13080,7 +13080,7 @@
         <v>0.75</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT62" t="n">
         <v>0.92</v>
@@ -13486,10 +13486,10 @@
         <v>2.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU64" t="n">
         <v>1.72</v>
@@ -13689,10 +13689,10 @@
         <v>2.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU65" t="n">
         <v>1.21</v>
@@ -14907,7 +14907,7 @@
         <v>1.25</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT71" t="n">
         <v>1.42</v>
@@ -15516,7 +15516,7 @@
         <v>0.25</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT74" t="n">
         <v>1</v>
@@ -15925,7 +15925,7 @@
         <v>1.25</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU76" t="n">
         <v>1.34</v>
@@ -16128,7 +16128,7 @@
         <v>1.83</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU77" t="n">
         <v>1.92</v>
@@ -16328,10 +16328,10 @@
         <v>1.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU78" t="n">
         <v>1.72</v>
@@ -16531,10 +16531,10 @@
         <v>0.75</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU79" t="n">
         <v>1.69</v>
@@ -16734,7 +16734,7 @@
         <v>0.25</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT80" t="n">
         <v>0.83</v>
@@ -16937,10 +16937,10 @@
         <v>0.75</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU81" t="n">
         <v>1.65</v>
@@ -17140,7 +17140,7 @@
         <v>1</v>
       </c>
       <c r="AS82" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT82" t="n">
         <v>1.42</v>
@@ -17346,7 +17346,7 @@
         <v>1.67</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU83" t="n">
         <v>1.61</v>
@@ -17955,7 +17955,7 @@
         <v>1.18</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU86" t="n">
         <v>1.66</v>
@@ -18764,7 +18764,7 @@
         <v>0.2</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT90" t="n">
         <v>1</v>
@@ -19170,10 +19170,10 @@
         <v>2</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU92" t="n">
         <v>1.65</v>
@@ -19779,7 +19779,7 @@
         <v>1.4</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT95" t="n">
         <v>1.31</v>
@@ -19982,7 +19982,7 @@
         <v>0.6</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT96" t="n">
         <v>1</v>
@@ -20188,7 +20188,7 @@
         <v>0.75</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU97" t="n">
         <v>1.92</v>
@@ -20591,10 +20591,10 @@
         <v>1.67</v>
       </c>
       <c r="AS99" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU99" t="n">
         <v>1.84</v>
@@ -20797,7 +20797,7 @@
         <v>1.25</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU100" t="n">
         <v>1.33</v>
@@ -21000,7 +21000,7 @@
         <v>1.18</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU101" t="n">
         <v>1.51</v>
@@ -21406,7 +21406,7 @@
         <v>1.17</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU103" t="n">
         <v>1.38</v>
@@ -21606,7 +21606,7 @@
         <v>1.83</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT104" t="n">
         <v>1.25</v>
@@ -21809,7 +21809,7 @@
         <v>2</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT105" t="n">
         <v>1.42</v>
@@ -22418,7 +22418,7 @@
         <v>0.33</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT108" t="n">
         <v>0.58</v>
@@ -22824,7 +22824,7 @@
         <v>1.17</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT110" t="n">
         <v>1.31</v>
@@ -23027,7 +23027,7 @@
         <v>0.83</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT111" t="n">
         <v>0.5</v>
@@ -23233,7 +23233,7 @@
         <v>1.54</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU112" t="n">
         <v>1.39</v>
@@ -23639,7 +23639,7 @@
         <v>1.83</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU114" t="n">
         <v>1.73</v>
@@ -23839,7 +23839,7 @@
         <v>0.86</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT115" t="n">
         <v>0.92</v>
@@ -24042,7 +24042,7 @@
         <v>1.86</v>
       </c>
       <c r="AS116" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT116" t="n">
         <v>1.42</v>
@@ -24245,10 +24245,10 @@
         <v>1.29</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU117" t="n">
         <v>1.53</v>
@@ -24451,7 +24451,7 @@
         <v>1.25</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU118" t="n">
         <v>1.33</v>
@@ -24651,7 +24651,7 @@
         <v>1.43</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT119" t="n">
         <v>1.31</v>
@@ -25060,7 +25060,7 @@
         <v>1.67</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU121" t="n">
         <v>1.55</v>
@@ -25466,7 +25466,7 @@
         <v>1.54</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU123" t="n">
         <v>1.37</v>
@@ -25869,10 +25869,10 @@
         <v>2</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU125" t="n">
         <v>1.5</v>
@@ -26478,7 +26478,7 @@
         <v>0.71</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT128" t="n">
         <v>1</v>
@@ -26681,7 +26681,7 @@
         <v>0.86</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT129" t="n">
         <v>1</v>
@@ -26884,7 +26884,7 @@
         <v>0.5</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT130" t="n">
         <v>0.83</v>
@@ -27087,10 +27087,10 @@
         <v>1.13</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU131" t="n">
         <v>1.44</v>
@@ -27290,7 +27290,7 @@
         <v>1.75</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT132" t="n">
         <v>1.42</v>
@@ -27699,7 +27699,7 @@
         <v>1.25</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU134" t="n">
         <v>1.35</v>
@@ -28508,7 +28508,7 @@
         <v>1.38</v>
       </c>
       <c r="AS138" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT138" t="n">
         <v>1.25</v>
@@ -28914,10 +28914,10 @@
         <v>1.25</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU140" t="n">
         <v>1.49</v>
@@ -29120,7 +29120,7 @@
         <v>1.83</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU141" t="n">
         <v>1.73</v>
@@ -29726,7 +29726,7 @@
         <v>0.63</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT144" t="n">
         <v>0.5</v>
@@ -29932,7 +29932,7 @@
         <v>1.67</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU145" t="n">
         <v>1.87</v>
@@ -30541,7 +30541,7 @@
         <v>1.54</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU148" t="n">
         <v>1.5</v>
@@ -30744,7 +30744,7 @@
         <v>1.67</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU149" t="n">
         <v>1.91</v>
@@ -30944,7 +30944,7 @@
         <v>2.44</v>
       </c>
       <c r="AS150" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT150" t="n">
         <v>2.25</v>
@@ -31147,7 +31147,7 @@
         <v>0.89</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT151" t="n">
         <v>1.42</v>
@@ -31350,7 +31350,7 @@
         <v>1.11</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT152" t="n">
         <v>0.92</v>
@@ -31962,7 +31962,7 @@
         <v>1.17</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU155" t="n">
         <v>1.34</v>
@@ -32365,7 +32365,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT157" t="n">
         <v>0.5</v>
@@ -32571,7 +32571,7 @@
         <v>1.18</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU158" t="n">
         <v>1.61</v>
@@ -32771,7 +32771,7 @@
         <v>0.67</v>
       </c>
       <c r="AS159" t="n">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT159" t="n">
         <v>1</v>
@@ -32974,7 +32974,7 @@
         <v>1.56</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT160" t="n">
         <v>1.25</v>
@@ -33180,7 +33180,7 @@
         <v>2.58</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU161" t="n">
         <v>2.14</v>
@@ -33989,10 +33989,10 @@
         <v>1.6</v>
       </c>
       <c r="AS165" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU165" t="n">
         <v>1.62</v>
@@ -34395,7 +34395,7 @@
         <v>1.4</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT167" t="n">
         <v>1.31</v>
@@ -34801,10 +34801,10 @@
         <v>1.7</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU169" t="n">
         <v>1.41</v>
@@ -35210,7 +35210,7 @@
         <v>1.67</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU171" t="n">
         <v>1.63</v>
@@ -35410,7 +35410,7 @@
         <v>0.6</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT172" t="n">
         <v>1</v>
@@ -35616,7 +35616,7 @@
         <v>1.17</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU173" t="n">
         <v>1.4</v>
@@ -35816,10 +35816,10 @@
         <v>1.3</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU174" t="n">
         <v>1.69</v>
@@ -36222,7 +36222,7 @@
         <v>0.7</v>
       </c>
       <c r="AS176" t="n">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT176" t="n">
         <v>0.58</v>
@@ -36834,7 +36834,7 @@
         <v>1.67</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU179" t="n">
         <v>1.9</v>
@@ -37034,7 +37034,7 @@
         <v>2.36</v>
       </c>
       <c r="AS180" t="n">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT180" t="n">
         <v>2.25</v>
@@ -37237,7 +37237,7 @@
         <v>1.27</v>
       </c>
       <c r="AS181" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT181" t="n">
         <v>1.31</v>
@@ -37440,7 +37440,7 @@
         <v>1.27</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT182" t="n">
         <v>1.42</v>
@@ -37646,7 +37646,7 @@
         <v>0.75</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU183" t="n">
         <v>1.87</v>
@@ -37846,7 +37846,7 @@
         <v>0.82</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT184" t="n">
         <v>1</v>
@@ -38049,7 +38049,7 @@
         <v>0.91</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT185" t="n">
         <v>0.83</v>
@@ -38255,7 +38255,7 @@
         <v>1.67</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU186" t="n">
         <v>1.47</v>
@@ -38861,7 +38861,7 @@
         <v>0.64</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT189" t="n">
         <v>0.58</v>
@@ -39676,7 +39676,7 @@
         <v>1.25</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU193" t="n">
         <v>1.34</v>
@@ -39728,6 +39728,1224 @@
       </c>
       <c r="BK193" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>2593476</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>45044.54861111111</v>
+      </c>
+      <c r="F194" t="n">
+        <v>25</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Austria Wien II</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Sturm Graz II</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="n">
+        <v>0</v>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="n">
+        <v>1</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>14</v>
+      </c>
+      <c r="R194" t="n">
+        <v>8</v>
+      </c>
+      <c r="S194" t="n">
+        <v>22</v>
+      </c>
+      <c r="T194" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U194" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V194" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X194" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BA194" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF194" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>2593483</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>45044.54861111111</v>
+      </c>
+      <c r="F195" t="n">
+        <v>25</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>First Vienna</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Horn</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0</v>
+      </c>
+      <c r="N195" t="n">
+        <v>0</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>8</v>
+      </c>
+      <c r="R195" t="n">
+        <v>6</v>
+      </c>
+      <c r="S195" t="n">
+        <v>14</v>
+      </c>
+      <c r="T195" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U195" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V195" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X195" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BF195" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ195" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>2593479</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>45044.54861111111</v>
+      </c>
+      <c r="F196" t="n">
+        <v>25</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Floridsdorfer AC</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Lafnitz</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="n">
+        <v>4</v>
+      </c>
+      <c r="M196" t="n">
+        <v>3</v>
+      </c>
+      <c r="N196" t="n">
+        <v>7</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>['5', '74', '76', '81']</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>['51', '53', '67']</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>3</v>
+      </c>
+      <c r="R196" t="n">
+        <v>7</v>
+      </c>
+      <c r="S196" t="n">
+        <v>10</v>
+      </c>
+      <c r="T196" t="n">
+        <v>3</v>
+      </c>
+      <c r="U196" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V196" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X196" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA196" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="BF196" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG196" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH196" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK196" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>2593481</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>45044.54861111111</v>
+      </c>
+      <c r="F197" t="n">
+        <v>25</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Rapid Wien II</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Kapfenberger SV</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>1</v>
+      </c>
+      <c r="K197" t="n">
+        <v>2</v>
+      </c>
+      <c r="L197" t="n">
+        <v>2</v>
+      </c>
+      <c r="M197" t="n">
+        <v>2</v>
+      </c>
+      <c r="N197" t="n">
+        <v>4</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>['41', '88']</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>['43', '59']</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>7</v>
+      </c>
+      <c r="R197" t="n">
+        <v>3</v>
+      </c>
+      <c r="S197" t="n">
+        <v>10</v>
+      </c>
+      <c r="T197" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U197" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V197" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X197" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BA197" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG197" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ197" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>2593482</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>45044.54861111111</v>
+      </c>
+      <c r="F198" t="n">
+        <v>25</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Admira</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Amstetten</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="n">
+        <v>1</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>5</v>
+      </c>
+      <c r="R198" t="n">
+        <v>6</v>
+      </c>
+      <c r="S198" t="n">
+        <v>11</v>
+      </c>
+      <c r="T198" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U198" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V198" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W198" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X198" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG198" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>2593480</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>45044.64583333334</v>
+      </c>
+      <c r="F199" t="n">
+        <v>25</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Grazer AK</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Blau-Weiß Linz</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>3</v>
+      </c>
+      <c r="K199" t="n">
+        <v>3</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0</v>
+      </c>
+      <c r="M199" t="n">
+        <v>3</v>
+      </c>
+      <c r="N199" t="n">
+        <v>3</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>['13', '27', '45+5']</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>6</v>
+      </c>
+      <c r="R199" t="n">
+        <v>3</v>
+      </c>
+      <c r="S199" t="n">
+        <v>9</v>
+      </c>
+      <c r="T199" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U199" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V199" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X199" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BA199" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BF199" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG199" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH199" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ199" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK199" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK199"/>
+  <dimension ref="A1:BK201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT3" t="n">
         <v>0.92</v>
@@ -1512,7 +1512,7 @@
         <v>0.92</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.38</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT11" t="n">
         <v>1.54</v>
@@ -4760,7 +4760,7 @@
         <v>1.46</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU21" t="n">
         <v>0.8100000000000001</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT23" t="n">
         <v>1.31</v>
@@ -5369,7 +5369,7 @@
         <v>2.31</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU24" t="n">
         <v>1.45</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT30" t="n">
         <v>1.54</v>
@@ -7602,7 +7602,7 @@
         <v>1.67</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU35" t="n">
         <v>1.69</v>
@@ -8817,7 +8817,7 @@
         <v>0.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT41" t="n">
         <v>1.42</v>
@@ -9835,7 +9835,7 @@
         <v>1.54</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU46" t="n">
         <v>1.71</v>
@@ -10035,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT47" t="n">
         <v>1.25</v>
@@ -10850,7 +10850,7 @@
         <v>1.67</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU51" t="n">
         <v>1.59</v>
@@ -11050,7 +11050,7 @@
         <v>0.67</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT52" t="n">
         <v>0.5</v>
@@ -12268,7 +12268,7 @@
         <v>0.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT58" t="n">
         <v>1</v>
@@ -13286,7 +13286,7 @@
         <v>1.67</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU63" t="n">
         <v>1.81</v>
@@ -14098,7 +14098,7 @@
         <v>2.58</v>
       </c>
       <c r="AT67" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU67" t="n">
         <v>1.83</v>
@@ -15719,7 +15719,7 @@
         <v>0.75</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT75" t="n">
         <v>1</v>
@@ -15922,7 +15922,7 @@
         <v>1.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT76" t="n">
         <v>1.54</v>
@@ -16737,7 +16737,7 @@
         <v>1.54</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU80" t="n">
         <v>1.37</v>
@@ -17546,10 +17546,10 @@
         <v>2</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT84" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU84" t="n">
         <v>1.27</v>
@@ -17952,7 +17952,7 @@
         <v>0.6</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT86" t="n">
         <v>1.54</v>
@@ -19376,7 +19376,7 @@
         <v>1.54</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU93" t="n">
         <v>1.5</v>
@@ -20794,7 +20794,7 @@
         <v>1.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT100" t="n">
         <v>1.25</v>
@@ -20997,7 +20997,7 @@
         <v>1.4</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT101" t="n">
         <v>1.46</v>
@@ -21203,7 +21203,7 @@
         <v>1.67</v>
       </c>
       <c r="AT102" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU102" t="n">
         <v>1.58</v>
@@ -22624,7 +22624,7 @@
         <v>2.58</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU109" t="n">
         <v>2.04</v>
@@ -24448,7 +24448,7 @@
         <v>1.17</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT118" t="n">
         <v>1.46</v>
@@ -24857,7 +24857,7 @@
         <v>1.17</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU120" t="n">
         <v>1.28</v>
@@ -25666,7 +25666,7 @@
         <v>0.29</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT124" t="n">
         <v>0.58</v>
@@ -26075,7 +26075,7 @@
         <v>1.67</v>
       </c>
       <c r="AT126" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU126" t="n">
         <v>1.54</v>
@@ -26887,7 +26887,7 @@
         <v>1.46</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU130" t="n">
         <v>1.49</v>
@@ -27696,7 +27696,7 @@
         <v>1.5</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT134" t="n">
         <v>1.54</v>
@@ -28308,7 +28308,7 @@
         <v>0.75</v>
       </c>
       <c r="AT137" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU137" t="n">
         <v>2.04</v>
@@ -29523,7 +29523,7 @@
         <v>0.88</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT143" t="n">
         <v>0.92</v>
@@ -30132,7 +30132,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT146" t="n">
         <v>1</v>
@@ -30947,7 +30947,7 @@
         <v>0.92</v>
       </c>
       <c r="AT150" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU150" t="n">
         <v>1.66</v>
@@ -32165,7 +32165,7 @@
         <v>1.83</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU156" t="n">
         <v>1.58</v>
@@ -32568,7 +32568,7 @@
         <v>1.33</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT158" t="n">
         <v>1.25</v>
@@ -33583,7 +33583,7 @@
         <v>1.4</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT163" t="n">
         <v>1.42</v>
@@ -34195,7 +34195,7 @@
         <v>1.54</v>
       </c>
       <c r="AT166" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU166" t="n">
         <v>1.44</v>
@@ -36425,10 +36425,10 @@
         <v>0.7</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU177" t="n">
         <v>1.58</v>
@@ -37037,7 +37037,7 @@
         <v>2.31</v>
       </c>
       <c r="AT180" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU180" t="n">
         <v>1.75</v>
@@ -38052,7 +38052,7 @@
         <v>1.54</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU185" t="n">
         <v>1.47</v>
@@ -39673,7 +39673,7 @@
         <v>1.27</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT193" t="n">
         <v>1.54</v>
@@ -40946,6 +40946,412 @@
       </c>
       <c r="BK199" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>2593478</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45045.39583333334</v>
+      </c>
+      <c r="F200" t="n">
+        <v>25</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Dornbirn</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>St. Pölten</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>1</v>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="n">
+        <v>0</v>
+      </c>
+      <c r="M200" t="n">
+        <v>3</v>
+      </c>
+      <c r="N200" t="n">
+        <v>3</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>['7', '49', '66']</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>2</v>
+      </c>
+      <c r="R200" t="n">
+        <v>4</v>
+      </c>
+      <c r="S200" t="n">
+        <v>6</v>
+      </c>
+      <c r="T200" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U200" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V200" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X200" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>2593477</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>45046.22916666666</v>
+      </c>
+      <c r="F201" t="n">
+        <v>25</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Vorwärts Steyr</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Liefering</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>2</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>2</v>
+      </c>
+      <c r="L201" t="n">
+        <v>2</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N201" t="n">
+        <v>2</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>['34', '44']</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>4</v>
+      </c>
+      <c r="R201" t="n">
+        <v>3</v>
+      </c>
+      <c r="S201" t="n">
+        <v>7</v>
+      </c>
+      <c r="T201" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U201" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V201" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X201" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK201"/>
+  <dimension ref="A1:BK206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.38</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT4" t="n">
         <v>1.46</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT5" t="n">
         <v>0.77</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT6" t="n">
         <v>1</v>
@@ -2121,7 +2121,7 @@
         <v>2.31</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -3339,7 +3339,7 @@
         <v>1.54</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.54</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0.75</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT17" t="n">
         <v>0.58</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT18" t="n">
         <v>1</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT19" t="n">
         <v>0.5</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT20" t="n">
         <v>1.54</v>
@@ -4963,7 +4963,7 @@
         <v>1.54</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU22" t="n">
         <v>1.96</v>
@@ -5572,7 +5572,7 @@
         <v>0.75</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU25" t="n">
         <v>2.6</v>
@@ -6381,10 +6381,10 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU29" t="n">
         <v>1.53</v>
@@ -6787,10 +6787,10 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU31" t="n">
         <v>2.17</v>
@@ -7196,7 +7196,7 @@
         <v>1.17</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU33" t="n">
         <v>1.72</v>
@@ -7396,10 +7396,10 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU34" t="n">
         <v>2.04</v>
@@ -7599,7 +7599,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT35" t="n">
         <v>0.77</v>
@@ -8005,10 +8005,10 @@
         <v>2</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU37" t="n">
         <v>1.52</v>
@@ -8820,7 +8820,7 @@
         <v>1.38</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU41" t="n">
         <v>1.51</v>
@@ -9020,7 +9020,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT42" t="n">
         <v>1.46</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT43" t="n">
         <v>1.54</v>
@@ -10038,7 +10038,7 @@
         <v>1.08</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU47" t="n">
         <v>1.05</v>
@@ -10241,7 +10241,7 @@
         <v>2.31</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU48" t="n">
         <v>1.91</v>
@@ -10441,10 +10441,10 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU49" t="n">
         <v>1.79</v>
@@ -10647,7 +10647,7 @@
         <v>1.54</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU50" t="n">
         <v>1.66</v>
@@ -10847,7 +10847,7 @@
         <v>0.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT51" t="n">
         <v>0.77</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT53" t="n">
         <v>1.54</v>
@@ -11865,7 +11865,7 @@
         <v>1.83</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU56" t="n">
         <v>2.16</v>
@@ -12068,7 +12068,7 @@
         <v>1.17</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU57" t="n">
         <v>1.55</v>
@@ -12674,7 +12674,7 @@
         <v>0.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT60" t="n">
         <v>0.58</v>
@@ -12877,10 +12877,10 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU61" t="n">
         <v>1.89</v>
@@ -13083,7 +13083,7 @@
         <v>1.54</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU62" t="n">
         <v>1.64</v>
@@ -13283,7 +13283,7 @@
         <v>1.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT63" t="n">
         <v>2.31</v>
@@ -14095,7 +14095,7 @@
         <v>1.75</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="AT67" t="n">
         <v>2.31</v>
@@ -14298,10 +14298,10 @@
         <v>1.25</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU68" t="n">
         <v>1.53</v>
@@ -14704,7 +14704,7 @@
         <v>0.25</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT70" t="n">
         <v>0.58</v>
@@ -14910,7 +14910,7 @@
         <v>1.38</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU71" t="n">
         <v>1.52</v>
@@ -15110,7 +15110,7 @@
         <v>1</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT72" t="n">
         <v>1.31</v>
@@ -15316,7 +15316,7 @@
         <v>0.75</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU73" t="n">
         <v>2.03</v>
@@ -16534,7 +16534,7 @@
         <v>1.38</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU79" t="n">
         <v>1.69</v>
@@ -17140,10 +17140,10 @@
         <v>1</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU82" t="n">
         <v>1.93</v>
@@ -17343,10 +17343,10 @@
         <v>1.2</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU83" t="n">
         <v>1.61</v>
@@ -17752,7 +17752,7 @@
         <v>1.17</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU85" t="n">
         <v>1.39</v>
@@ -18155,10 +18155,10 @@
         <v>1.8</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU87" t="n">
         <v>1.87</v>
@@ -18361,7 +18361,7 @@
         <v>0.75</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU88" t="n">
         <v>1.91</v>
@@ -18561,7 +18561,7 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT89" t="n">
         <v>0.5</v>
@@ -18970,7 +18970,7 @@
         <v>1.83</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU91" t="n">
         <v>1.91</v>
@@ -19576,7 +19576,7 @@
         <v>0.4</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="AT94" t="n">
         <v>0.58</v>
@@ -20388,10 +20388,10 @@
         <v>1</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU98" t="n">
         <v>1.91</v>
@@ -20591,7 +20591,7 @@
         <v>1.67</v>
       </c>
       <c r="AS99" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT99" t="n">
         <v>1.54</v>
@@ -20797,7 +20797,7 @@
         <v>1.38</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU100" t="n">
         <v>1.33</v>
@@ -21200,7 +21200,7 @@
         <v>2.17</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT102" t="n">
         <v>2.31</v>
@@ -21609,7 +21609,7 @@
         <v>2.31</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU104" t="n">
         <v>1.59</v>
@@ -21812,7 +21812,7 @@
         <v>1.54</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU105" t="n">
         <v>1.46</v>
@@ -22012,10 +22012,10 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU106" t="n">
         <v>1.56</v>
@@ -22621,7 +22621,7 @@
         <v>0.67</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="AT109" t="n">
         <v>0.77</v>
@@ -23639,7 +23639,7 @@
         <v>1.83</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU114" t="n">
         <v>1.73</v>
@@ -23842,7 +23842,7 @@
         <v>1.46</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU115" t="n">
         <v>1.49</v>
@@ -24042,10 +24042,10 @@
         <v>1.86</v>
       </c>
       <c r="AS116" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU116" t="n">
         <v>1.81</v>
@@ -25057,7 +25057,7 @@
         <v>1.86</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT121" t="n">
         <v>1.54</v>
@@ -25260,7 +25260,7 @@
         <v>0.71</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT122" t="n">
         <v>0.5</v>
@@ -26072,7 +26072,7 @@
         <v>2.29</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT126" t="n">
         <v>2.31</v>
@@ -26275,10 +26275,10 @@
         <v>1.57</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU127" t="n">
         <v>2.08</v>
@@ -27090,7 +27090,7 @@
         <v>1.54</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU131" t="n">
         <v>1.44</v>
@@ -27293,7 +27293,7 @@
         <v>1.38</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU132" t="n">
         <v>1.74</v>
@@ -27493,10 +27493,10 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU133" t="n">
         <v>1.61</v>
@@ -28102,7 +28102,7 @@
         <v>1.25</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT136" t="n">
         <v>1.31</v>
@@ -28508,10 +28508,10 @@
         <v>1.38</v>
       </c>
       <c r="AS138" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU138" t="n">
         <v>1.76</v>
@@ -29320,7 +29320,7 @@
         <v>0.63</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="AT142" t="n">
         <v>1</v>
@@ -29526,7 +29526,7 @@
         <v>1.08</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU143" t="n">
         <v>1.56</v>
@@ -29929,7 +29929,7 @@
         <v>1.63</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT145" t="n">
         <v>1.54</v>
@@ -30335,10 +30335,10 @@
         <v>1.56</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU147" t="n">
         <v>1.51</v>
@@ -30741,7 +30741,7 @@
         <v>1.89</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT149" t="n">
         <v>1.54</v>
@@ -30944,7 +30944,7 @@
         <v>2.44</v>
       </c>
       <c r="AS150" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT150" t="n">
         <v>2.31</v>
@@ -31150,7 +31150,7 @@
         <v>1.46</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU151" t="n">
         <v>1.49</v>
@@ -31353,7 +31353,7 @@
         <v>1.54</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU152" t="n">
         <v>1.42</v>
@@ -31756,7 +31756,7 @@
         <v>0.67</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT154" t="n">
         <v>0.58</v>
@@ -32571,7 +32571,7 @@
         <v>1.08</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU158" t="n">
         <v>1.61</v>
@@ -32977,7 +32977,7 @@
         <v>1.38</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU160" t="n">
         <v>1.74</v>
@@ -33177,7 +33177,7 @@
         <v>1.44</v>
       </c>
       <c r="AS161" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="AT161" t="n">
         <v>1.54</v>
@@ -33383,7 +33383,7 @@
         <v>0.75</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU162" t="n">
         <v>1.89</v>
@@ -33586,7 +33586,7 @@
         <v>1.38</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU163" t="n">
         <v>1.38</v>
@@ -33786,10 +33786,10 @@
         <v>1</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU164" t="n">
         <v>1.49</v>
@@ -33989,7 +33989,7 @@
         <v>1.6</v>
       </c>
       <c r="AS165" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT165" t="n">
         <v>1.54</v>
@@ -34598,7 +34598,7 @@
         <v>0.6</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT168" t="n">
         <v>1</v>
@@ -35007,7 +35007,7 @@
         <v>1.83</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU170" t="n">
         <v>1.57</v>
@@ -35207,10 +35207,10 @@
         <v>1.2</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU171" t="n">
         <v>1.63</v>
@@ -36019,7 +36019,7 @@
         <v>0.6</v>
       </c>
       <c r="AS175" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="AT175" t="n">
         <v>0.5</v>
@@ -36631,7 +36631,7 @@
         <v>1.54</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU178" t="n">
         <v>1.42</v>
@@ -36831,7 +36831,7 @@
         <v>1.45</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT179" t="n">
         <v>1.54</v>
@@ -37237,7 +37237,7 @@
         <v>1.27</v>
       </c>
       <c r="AS181" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT181" t="n">
         <v>1.31</v>
@@ -37443,7 +37443,7 @@
         <v>1.46</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU182" t="n">
         <v>1.41</v>
@@ -38252,7 +38252,7 @@
         <v>1.45</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT186" t="n">
         <v>1.46</v>
@@ -38455,7 +38455,7 @@
         <v>0.82</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT187" t="n">
         <v>1</v>
@@ -38661,7 +38661,7 @@
         <v>1.17</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU188" t="n">
         <v>1.39</v>
@@ -39267,7 +39267,7 @@
         <v>1.42</v>
       </c>
       <c r="AS191" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="AT191" t="n">
         <v>1.31</v>
@@ -39473,7 +39473,7 @@
         <v>1.54</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU192" t="n">
         <v>1.53</v>
@@ -39876,7 +39876,7 @@
         <v>1.33</v>
       </c>
       <c r="AS194" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT194" t="n">
         <v>1.46</v>
@@ -40285,7 +40285,7 @@
         <v>1.54</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU196" t="n">
         <v>1.5</v>
@@ -41352,6 +41352,1021 @@
       </c>
       <c r="BK201" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>2593485</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>45051.54861111111</v>
+      </c>
+      <c r="F202" t="n">
+        <v>26</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Austria Wien II</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Lafnitz</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N202" t="n">
+        <v>1</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>5</v>
+      </c>
+      <c r="R202" t="n">
+        <v>4</v>
+      </c>
+      <c r="S202" t="n">
+        <v>9</v>
+      </c>
+      <c r="T202" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U202" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V202" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X202" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>2593486</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45051.54861111111</v>
+      </c>
+      <c r="F203" t="n">
+        <v>26</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Amstetten</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>First Vienna</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>1</v>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="n">
+        <v>0</v>
+      </c>
+      <c r="M203" t="n">
+        <v>4</v>
+      </c>
+      <c r="N203" t="n">
+        <v>4</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>['39', '66', '76', '81']</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>3</v>
+      </c>
+      <c r="R203" t="n">
+        <v>9</v>
+      </c>
+      <c r="S203" t="n">
+        <v>12</v>
+      </c>
+      <c r="T203" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U203" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V203" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X203" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>2593487</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45051.54861111111</v>
+      </c>
+      <c r="F204" t="n">
+        <v>26</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Blau-Weiß Linz</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Floridsdorfer AC</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="n">
+        <v>2</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>['45+4']</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>4</v>
+      </c>
+      <c r="R204" t="n">
+        <v>6</v>
+      </c>
+      <c r="S204" t="n">
+        <v>10</v>
+      </c>
+      <c r="T204" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U204" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V204" t="n">
+        <v>7</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X204" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>2593488</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45051.54861111111</v>
+      </c>
+      <c r="F205" t="n">
+        <v>26</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Horn</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Rapid Wien II</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="n">
+        <v>3</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N205" t="n">
+        <v>3</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>['45+1', '57', '71']</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>3</v>
+      </c>
+      <c r="R205" t="n">
+        <v>3</v>
+      </c>
+      <c r="S205" t="n">
+        <v>6</v>
+      </c>
+      <c r="T205" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U205" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V205" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X205" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>2593484</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>45051.64583333334</v>
+      </c>
+      <c r="F206" t="n">
+        <v>26</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Liefering</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Grazer AK</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M206" t="n">
+        <v>2</v>
+      </c>
+      <c r="N206" t="n">
+        <v>2</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>['55', '66']</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>7</v>
+      </c>
+      <c r="R206" t="n">
+        <v>3</v>
+      </c>
+      <c r="S206" t="n">
+        <v>10</v>
+      </c>
+      <c r="T206" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U206" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V206" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X206" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK206"/>
+  <dimension ref="A1:BK209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.54</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT12" t="n">
         <v>1.54</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT16" t="n">
         <v>1.15</v>
@@ -3948,7 +3948,7 @@
         <v>1.54</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.54</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU19" t="n">
         <v>1.54</v>
@@ -5166,7 +5166,7 @@
         <v>1.38</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU23" t="n">
         <v>1.4</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT25" t="n">
         <v>0.85</v>
@@ -5978,7 +5978,7 @@
         <v>1.54</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU27" t="n">
         <v>1.24</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT28" t="n">
         <v>1.46</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT33" t="n">
         <v>1.15</v>
@@ -7802,7 +7802,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT36" t="n">
         <v>1</v>
@@ -8211,7 +8211,7 @@
         <v>1.46</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU38" t="n">
         <v>0.97</v>
@@ -8414,7 +8414,7 @@
         <v>1.54</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU39" t="n">
         <v>1.49</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT40" t="n">
         <v>1.54</v>
@@ -9426,10 +9426,10 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU44" t="n">
         <v>1.3</v>
@@ -11053,7 +11053,7 @@
         <v>1.38</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU52" t="n">
         <v>1.4</v>
@@ -11459,7 +11459,7 @@
         <v>1.38</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU54" t="n">
         <v>1.09</v>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT55" t="n">
         <v>1</v>
@@ -11862,7 +11862,7 @@
         <v>1.67</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT56" t="n">
         <v>1.38</v>
@@ -12065,7 +12065,7 @@
         <v>0.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT57" t="n">
         <v>1.54</v>
@@ -12677,7 +12677,7 @@
         <v>1.07</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU60" t="n">
         <v>1.96</v>
@@ -14501,10 +14501,10 @@
         <v>0.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU69" t="n">
         <v>1.63</v>
@@ -14707,7 +14707,7 @@
         <v>1.54</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU70" t="n">
         <v>1.71</v>
@@ -15113,7 +15113,7 @@
         <v>1.54</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU72" t="n">
         <v>1.86</v>
@@ -15313,7 +15313,7 @@
         <v>2</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT73" t="n">
         <v>1.38</v>
@@ -16125,7 +16125,7 @@
         <v>1.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT77" t="n">
         <v>1.54</v>
@@ -17749,7 +17749,7 @@
         <v>0.6</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT85" t="n">
         <v>0.85</v>
@@ -18358,7 +18358,7 @@
         <v>1.6</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT88" t="n">
         <v>1.38</v>
@@ -18564,7 +18564,7 @@
         <v>1.77</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU89" t="n">
         <v>1.6</v>
@@ -18967,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT91" t="n">
         <v>1.54</v>
@@ -19579,7 +19579,7 @@
         <v>2.46</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU94" t="n">
         <v>1.92</v>
@@ -19782,7 +19782,7 @@
         <v>1.54</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU95" t="n">
         <v>1.34</v>
@@ -20185,7 +20185,7 @@
         <v>2</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT97" t="n">
         <v>1.54</v>
@@ -21403,7 +21403,7 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT103" t="n">
         <v>1.54</v>
@@ -22215,7 +22215,7 @@
         <v>1</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT107" t="n">
         <v>1</v>
@@ -22421,7 +22421,7 @@
         <v>1.46</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU108" t="n">
         <v>1.43</v>
@@ -22827,7 +22827,7 @@
         <v>1.54</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU110" t="n">
         <v>1.48</v>
@@ -23030,7 +23030,7 @@
         <v>1.38</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU111" t="n">
         <v>1.57</v>
@@ -23433,7 +23433,7 @@
         <v>0.33</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT113" t="n">
         <v>1</v>
@@ -23636,7 +23636,7 @@
         <v>1.29</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT114" t="n">
         <v>1.15</v>
@@ -24654,7 +24654,7 @@
         <v>2.31</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU119" t="n">
         <v>1.54</v>
@@ -24854,7 +24854,7 @@
         <v>0.57</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT120" t="n">
         <v>0.77</v>
@@ -25263,7 +25263,7 @@
         <v>1.54</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU122" t="n">
         <v>1.88</v>
@@ -25669,7 +25669,7 @@
         <v>1.08</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU124" t="n">
         <v>1.49</v>
@@ -27899,7 +27899,7 @@
         <v>0.75</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT135" t="n">
         <v>1</v>
@@ -28105,7 +28105,7 @@
         <v>1.54</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU136" t="n">
         <v>1.45</v>
@@ -28305,7 +28305,7 @@
         <v>2.38</v>
       </c>
       <c r="AS137" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT137" t="n">
         <v>2.31</v>
@@ -28714,7 +28714,7 @@
         <v>1.54</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU139" t="n">
         <v>1.55</v>
@@ -29117,7 +29117,7 @@
         <v>1.75</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT141" t="n">
         <v>1.54</v>
@@ -29729,7 +29729,7 @@
         <v>2.31</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU144" t="n">
         <v>1.69</v>
@@ -31553,10 +31553,10 @@
         <v>1.22</v>
       </c>
       <c r="AS153" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU153" t="n">
         <v>1.93</v>
@@ -31759,7 +31759,7 @@
         <v>1.77</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU154" t="n">
         <v>1.63</v>
@@ -31959,7 +31959,7 @@
         <v>1.44</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT155" t="n">
         <v>1.46</v>
@@ -32162,7 +32162,7 @@
         <v>0.78</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT156" t="n">
         <v>0.77</v>
@@ -32368,7 +32368,7 @@
         <v>1.54</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU157" t="n">
         <v>1.5</v>
@@ -33380,7 +33380,7 @@
         <v>1.1</v>
       </c>
       <c r="AS162" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT162" t="n">
         <v>1.54</v>
@@ -34398,7 +34398,7 @@
         <v>1.46</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU167" t="n">
         <v>1.41</v>
@@ -35004,7 +35004,7 @@
         <v>1.5</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT170" t="n">
         <v>1.38</v>
@@ -35613,7 +35613,7 @@
         <v>1.3</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT173" t="n">
         <v>1.54</v>
@@ -36022,7 +36022,7 @@
         <v>2.46</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU175" t="n">
         <v>2.18</v>
@@ -36225,7 +36225,7 @@
         <v>2.31</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU176" t="n">
         <v>1.77</v>
@@ -37240,7 +37240,7 @@
         <v>1.07</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU181" t="n">
         <v>1.59</v>
@@ -37643,7 +37643,7 @@
         <v>1.64</v>
       </c>
       <c r="AS183" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT183" t="n">
         <v>1.54</v>
@@ -38658,7 +38658,7 @@
         <v>1.36</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT188" t="n">
         <v>1.38</v>
@@ -38864,7 +38864,7 @@
         <v>1.38</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU189" t="n">
         <v>1.7</v>
@@ -39064,10 +39064,10 @@
         <v>0.55</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU190" t="n">
         <v>1.7</v>
@@ -39270,7 +39270,7 @@
         <v>2.46</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU191" t="n">
         <v>2.18</v>
@@ -42367,6 +42367,615 @@
       </c>
       <c r="BK206" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>2593489</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>45052.39583333334</v>
+      </c>
+      <c r="F207" t="n">
+        <v>26</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Kapfenberger SV</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Dornbirn</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>1</v>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="n">
+        <v>2</v>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="n">
+        <v>3</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>['48', '72']</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>5</v>
+      </c>
+      <c r="R207" t="n">
+        <v>3</v>
+      </c>
+      <c r="S207" t="n">
+        <v>8</v>
+      </c>
+      <c r="T207" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U207" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V207" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X207" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>2593490</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>45053.22916666666</v>
+      </c>
+      <c r="F208" t="n">
+        <v>26</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>St. Pölten</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Vorwärts Steyr</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>1</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="n">
+        <v>2</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>4</v>
+      </c>
+      <c r="R208" t="n">
+        <v>2</v>
+      </c>
+      <c r="S208" t="n">
+        <v>6</v>
+      </c>
+      <c r="T208" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U208" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V208" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X208" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF208" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG208" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH208" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ208" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK208" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>2593491</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>45053.22916666666</v>
+      </c>
+      <c r="F209" t="n">
+        <v>26</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Sturm Graz II</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Admira</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>2</v>
+      </c>
+      <c r="J209" t="n">
+        <v>2</v>
+      </c>
+      <c r="K209" t="n">
+        <v>4</v>
+      </c>
+      <c r="L209" t="n">
+        <v>2</v>
+      </c>
+      <c r="M209" t="n">
+        <v>5</v>
+      </c>
+      <c r="N209" t="n">
+        <v>7</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>['26', '45+3']</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>['2', '24', '69', '83', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
+        <v>7</v>
+      </c>
+      <c r="R209" t="n">
+        <v>3</v>
+      </c>
+      <c r="S209" t="n">
+        <v>10</v>
+      </c>
+      <c r="T209" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U209" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V209" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X209" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AT209" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BA209" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC209" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD209" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BE209" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BF209" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG209" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH209" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI209" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ209" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK209" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK209"/>
+  <dimension ref="A1:BK214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT3" t="n">
         <v>0.85</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT7" t="n">
         <v>1.21</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT9" t="n">
         <v>0.6899999999999999</v>
@@ -2730,7 +2730,7 @@
         <v>1.08</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>2.46</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU20" t="n">
         <v>1.86</v>
@@ -4757,7 +4757,7 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT21" t="n">
         <v>2.31</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT22" t="n">
         <v>1.38</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT23" t="n">
         <v>1.21</v>
@@ -5775,7 +5775,7 @@
         <v>1.54</v>
       </c>
       <c r="AT26" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU26" t="n">
         <v>1.7</v>
@@ -6178,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU28" t="n">
         <v>2.89</v>
@@ -6993,7 +6993,7 @@
         <v>1.38</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU32" t="n">
         <v>1.08</v>
@@ -7802,7 +7802,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT36" t="n">
         <v>1</v>
@@ -8005,7 +8005,7 @@
         <v>2</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT37" t="n">
         <v>1.38</v>
@@ -8208,7 +8208,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT38" t="n">
         <v>0.6899999999999999</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT39" t="n">
         <v>1.21</v>
@@ -8617,7 +8617,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU40" t="n">
         <v>2.12</v>
@@ -8817,7 +8817,7 @@
         <v>0.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT41" t="n">
         <v>1.54</v>
@@ -9023,7 +9023,7 @@
         <v>1.54</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU42" t="n">
         <v>1.72</v>
@@ -9632,7 +9632,7 @@
         <v>1.54</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU45" t="n">
         <v>1.66</v>
@@ -10644,7 +10644,7 @@
         <v>1.67</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT50" t="n">
         <v>1.38</v>
@@ -10847,7 +10847,7 @@
         <v>0.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT51" t="n">
         <v>0.77</v>
@@ -11050,7 +11050,7 @@
         <v>0.67</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT52" t="n">
         <v>0.6899999999999999</v>
@@ -11256,7 +11256,7 @@
         <v>1.54</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU53" t="n">
         <v>1.9</v>
@@ -11662,7 +11662,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT55" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU55" t="n">
         <v>1.94</v>
@@ -11862,7 +11862,7 @@
         <v>1.67</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT56" t="n">
         <v>1.38</v>
@@ -12474,7 +12474,7 @@
         <v>1.54</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU59" t="n">
         <v>1.48</v>
@@ -13689,10 +13689,10 @@
         <v>2.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU65" t="n">
         <v>1.21</v>
@@ -13892,10 +13892,10 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT66" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU66" t="n">
         <v>1.56</v>
@@ -14298,7 +14298,7 @@
         <v>1.25</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT68" t="n">
         <v>1.38</v>
@@ -15516,7 +15516,7 @@
         <v>0.25</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT74" t="n">
         <v>1</v>
@@ -15722,7 +15722,7 @@
         <v>1.08</v>
       </c>
       <c r="AT75" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU75" t="n">
         <v>1.45</v>
@@ -15922,7 +15922,7 @@
         <v>1.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT76" t="n">
         <v>1.54</v>
@@ -16125,10 +16125,10 @@
         <v>1.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU77" t="n">
         <v>1.92</v>
@@ -16331,7 +16331,7 @@
         <v>2.31</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU78" t="n">
         <v>1.72</v>
@@ -16940,7 +16940,7 @@
         <v>1.54</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU81" t="n">
         <v>1.65</v>
@@ -17546,7 +17546,7 @@
         <v>2</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT84" t="n">
         <v>2.31</v>
@@ -17955,7 +17955,7 @@
         <v>1.08</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU86" t="n">
         <v>1.66</v>
@@ -18561,7 +18561,7 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT89" t="n">
         <v>0.6899999999999999</v>
@@ -18967,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT91" t="n">
         <v>1.54</v>
@@ -19373,7 +19373,7 @@
         <v>0.2</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT93" t="n">
         <v>0.77</v>
@@ -19982,10 +19982,10 @@
         <v>0.6</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT96" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU96" t="n">
         <v>1.47</v>
@@ -20188,7 +20188,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU97" t="n">
         <v>1.92</v>
@@ -20594,7 +20594,7 @@
         <v>1.07</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU99" t="n">
         <v>1.84</v>
@@ -20794,7 +20794,7 @@
         <v>1.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT100" t="n">
         <v>1.15</v>
@@ -21000,7 +21000,7 @@
         <v>1.08</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU101" t="n">
         <v>1.51</v>
@@ -21200,7 +21200,7 @@
         <v>2.17</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT102" t="n">
         <v>2.31</v>
@@ -21406,7 +21406,7 @@
         <v>1.31</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU103" t="n">
         <v>1.38</v>
@@ -22215,10 +22215,10 @@
         <v>1</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT107" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU107" t="n">
         <v>1.77</v>
@@ -22418,7 +22418,7 @@
         <v>0.33</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT108" t="n">
         <v>0.62</v>
@@ -23230,7 +23230,7 @@
         <v>2.17</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT112" t="n">
         <v>1.54</v>
@@ -23636,7 +23636,7 @@
         <v>1.29</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT114" t="n">
         <v>1.15</v>
@@ -23839,7 +23839,7 @@
         <v>0.86</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT115" t="n">
         <v>0.85</v>
@@ -24248,7 +24248,7 @@
         <v>1.54</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU117" t="n">
         <v>1.53</v>
@@ -24448,10 +24448,10 @@
         <v>1.17</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU118" t="n">
         <v>1.33</v>
@@ -25057,10 +25057,10 @@
         <v>1.86</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU121" t="n">
         <v>1.55</v>
@@ -25463,10 +25463,10 @@
         <v>1.43</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU123" t="n">
         <v>1.37</v>
@@ -26684,7 +26684,7 @@
         <v>1.38</v>
       </c>
       <c r="AT129" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU129" t="n">
         <v>1.75</v>
@@ -26884,7 +26884,7 @@
         <v>0.5</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT130" t="n">
         <v>0.77</v>
@@ -27493,7 +27493,7 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT133" t="n">
         <v>1.54</v>
@@ -27696,10 +27696,10 @@
         <v>1.5</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU134" t="n">
         <v>1.35</v>
@@ -27902,7 +27902,7 @@
         <v>1.31</v>
       </c>
       <c r="AT135" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU135" t="n">
         <v>1.27</v>
@@ -28711,7 +28711,7 @@
         <v>0.63</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT139" t="n">
         <v>0.62</v>
@@ -28917,7 +28917,7 @@
         <v>1.54</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU140" t="n">
         <v>1.49</v>
@@ -29117,7 +29117,7 @@
         <v>1.75</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT141" t="n">
         <v>1.54</v>
@@ -29932,7 +29932,7 @@
         <v>1.54</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU145" t="n">
         <v>1.87</v>
@@ -30132,7 +30132,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT146" t="n">
         <v>1</v>
@@ -30538,10 +30538,10 @@
         <v>1.67</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU148" t="n">
         <v>1.5</v>
@@ -31147,7 +31147,7 @@
         <v>0.89</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT151" t="n">
         <v>1.54</v>
@@ -31756,7 +31756,7 @@
         <v>0.67</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT154" t="n">
         <v>0.62</v>
@@ -31962,7 +31962,7 @@
         <v>1.31</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU155" t="n">
         <v>1.34</v>
@@ -32162,7 +32162,7 @@
         <v>0.78</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT156" t="n">
         <v>0.77</v>
@@ -32774,7 +32774,7 @@
         <v>2.31</v>
       </c>
       <c r="AT159" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU159" t="n">
         <v>1.67</v>
@@ -33180,7 +33180,7 @@
         <v>2.46</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU161" t="n">
         <v>2.14</v>
@@ -33583,7 +33583,7 @@
         <v>1.4</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT163" t="n">
         <v>1.38</v>
@@ -33992,7 +33992,7 @@
         <v>1.07</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU165" t="n">
         <v>1.62</v>
@@ -34192,7 +34192,7 @@
         <v>2.5</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT166" t="n">
         <v>2.31</v>
@@ -34395,7 +34395,7 @@
         <v>1.4</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT167" t="n">
         <v>1.21</v>
@@ -35004,7 +35004,7 @@
         <v>1.5</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT170" t="n">
         <v>1.38</v>
@@ -35207,7 +35207,7 @@
         <v>1.2</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT171" t="n">
         <v>1.15</v>
@@ -35413,7 +35413,7 @@
         <v>1.54</v>
       </c>
       <c r="AT172" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU172" t="n">
         <v>1.46</v>
@@ -35616,7 +35616,7 @@
         <v>1.31</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU173" t="n">
         <v>1.4</v>
@@ -35819,7 +35819,7 @@
         <v>1.38</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU174" t="n">
         <v>1.69</v>
@@ -36628,7 +36628,7 @@
         <v>1</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT178" t="n">
         <v>0.85</v>
@@ -36834,7 +36834,7 @@
         <v>1.54</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU179" t="n">
         <v>1.9</v>
@@ -37440,7 +37440,7 @@
         <v>1.27</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT182" t="n">
         <v>1.38</v>
@@ -38255,7 +38255,7 @@
         <v>1.54</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU186" t="n">
         <v>1.47</v>
@@ -38455,10 +38455,10 @@
         <v>0.82</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT187" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU187" t="n">
         <v>1.64</v>
@@ -39064,7 +39064,7 @@
         <v>0.55</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT190" t="n">
         <v>0.6899999999999999</v>
@@ -39470,7 +39470,7 @@
         <v>1.27</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT192" t="n">
         <v>1.54</v>
@@ -39673,10 +39673,10 @@
         <v>1.27</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU193" t="n">
         <v>1.34</v>
@@ -39879,7 +39879,7 @@
         <v>1.07</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU194" t="n">
         <v>1.64</v>
@@ -40079,7 +40079,7 @@
         <v>1.58</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT195" t="n">
         <v>1.54</v>
@@ -40691,7 +40691,7 @@
         <v>1.54</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU198" t="n">
         <v>1.37</v>
@@ -40894,7 +40894,7 @@
         <v>2.31</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU199" t="n">
         <v>1.68</v>
@@ -41297,7 +41297,7 @@
         <v>0.83</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT201" t="n">
         <v>0.77</v>
@@ -42109,7 +42109,7 @@
         <v>0.92</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT205" t="n">
         <v>0.85</v>
@@ -42718,7 +42718,7 @@
         <v>0.58</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT208" t="n">
         <v>0.62</v>
@@ -42976,6 +42976,1021 @@
       </c>
       <c r="BK209" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>2593499</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>45058.54861111111</v>
+      </c>
+      <c r="F210" t="n">
+        <v>27</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>First Vienna</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Sturm Graz II</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N210" t="n">
+        <v>1</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
+        <v>10</v>
+      </c>
+      <c r="R210" t="n">
+        <v>4</v>
+      </c>
+      <c r="S210" t="n">
+        <v>14</v>
+      </c>
+      <c r="T210" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U210" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V210" t="n">
+        <v>3</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X210" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BA210" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF210" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG210" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH210" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI210" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ210" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK210" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>2593495</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>45058.54861111111</v>
+      </c>
+      <c r="F211" t="n">
+        <v>27</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Horn</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Kapfenberger SV</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L211" t="n">
+        <v>0</v>
+      </c>
+      <c r="M211" t="n">
+        <v>0</v>
+      </c>
+      <c r="N211" t="n">
+        <v>0</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q211" t="n">
+        <v>11</v>
+      </c>
+      <c r="R211" t="n">
+        <v>0</v>
+      </c>
+      <c r="S211" t="n">
+        <v>11</v>
+      </c>
+      <c r="T211" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U211" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V211" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W211" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X211" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ211" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BA211" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB211" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC211" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD211" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE211" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF211" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG211" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH211" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI211" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ211" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK211" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>2593492</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>45058.54861111111</v>
+      </c>
+      <c r="F212" t="n">
+        <v>27</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Vorwärts Steyr</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Austria Wien II</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L212" t="n">
+        <v>2</v>
+      </c>
+      <c r="M212" t="n">
+        <v>0</v>
+      </c>
+      <c r="N212" t="n">
+        <v>2</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>['66', '86']</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q212" t="n">
+        <v>3</v>
+      </c>
+      <c r="R212" t="n">
+        <v>3</v>
+      </c>
+      <c r="S212" t="n">
+        <v>6</v>
+      </c>
+      <c r="T212" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U212" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V212" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W212" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X212" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL212" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN212" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO212" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP212" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ212" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR212" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS212" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT212" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU212" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX212" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ212" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BA212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC212" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF212" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG212" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH212" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI212" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ212" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK212" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="n">
+        <v>2593493</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>45058.54861111111</v>
+      </c>
+      <c r="F213" t="n">
+        <v>27</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Lafnitz</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Amstetten</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>1</v>
+      </c>
+      <c r="J213" t="n">
+        <v>1</v>
+      </c>
+      <c r="K213" t="n">
+        <v>2</v>
+      </c>
+      <c r="L213" t="n">
+        <v>2</v>
+      </c>
+      <c r="M213" t="n">
+        <v>3</v>
+      </c>
+      <c r="N213" t="n">
+        <v>5</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>['30', '64']</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>['38', '50', '52']</t>
+        </is>
+      </c>
+      <c r="Q213" t="n">
+        <v>6</v>
+      </c>
+      <c r="R213" t="n">
+        <v>5</v>
+      </c>
+      <c r="S213" t="n">
+        <v>11</v>
+      </c>
+      <c r="T213" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U213" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V213" t="n">
+        <v>4</v>
+      </c>
+      <c r="W213" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X213" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN213" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO213" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP213" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AQ213" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR213" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS213" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT213" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AU213" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW213" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX213" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ213" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BA213" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB213" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC213" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD213" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE213" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF213" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG213" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH213" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI213" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ213" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK213" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="n">
+        <v>2593498</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>45058.64583333334</v>
+      </c>
+      <c r="F214" t="n">
+        <v>27</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>St. Pölten</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Blau-Weiß Linz</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>1</v>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="n">
+        <v>0</v>
+      </c>
+      <c r="M214" t="n">
+        <v>2</v>
+      </c>
+      <c r="N214" t="n">
+        <v>2</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>['34', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q214" t="n">
+        <v>2</v>
+      </c>
+      <c r="R214" t="n">
+        <v>5</v>
+      </c>
+      <c r="S214" t="n">
+        <v>7</v>
+      </c>
+      <c r="T214" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U214" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V214" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W214" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X214" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE214" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ214" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK214" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL214" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM214" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN214" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO214" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP214" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ214" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AR214" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS214" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT214" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AU214" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV214" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AW214" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AX214" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY214" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ214" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA214" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB214" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC214" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD214" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE214" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG214" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH214" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI214" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ214" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK214" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK214"/>
+  <dimension ref="A1:BK217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>1.07</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.43</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT10" t="n">
         <v>2.31</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT11" t="n">
         <v>1.64</v>
@@ -3339,7 +3339,7 @@
         <v>1.54</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT15" t="n">
         <v>1.38</v>
@@ -4354,7 +4354,7 @@
         <v>1.54</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU19" t="n">
         <v>1.54</v>
@@ -5369,7 +5369,7 @@
         <v>2.31</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU24" t="n">
         <v>1.45</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT27" t="n">
         <v>0.62</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT30" t="n">
         <v>1.54</v>
@@ -6790,7 +6790,7 @@
         <v>2.46</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU31" t="n">
         <v>2.17</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT32" t="n">
         <v>1.64</v>
@@ -7602,7 +7602,7 @@
         <v>1.54</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU35" t="n">
         <v>1.69</v>
@@ -8211,7 +8211,7 @@
         <v>1.57</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU38" t="n">
         <v>0.97</v>
@@ -8820,7 +8820,7 @@
         <v>1.5</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU41" t="n">
         <v>1.51</v>
@@ -9629,7 +9629,7 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT45" t="n">
         <v>1.64</v>
@@ -10035,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT47" t="n">
         <v>1.38</v>
@@ -10850,7 +10850,7 @@
         <v>1.71</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU51" t="n">
         <v>1.59</v>
@@ -11053,7 +11053,7 @@
         <v>1.5</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU52" t="n">
         <v>1.4</v>
@@ -11456,7 +11456,7 @@
         <v>0.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT54" t="n">
         <v>1.21</v>
@@ -12068,7 +12068,7 @@
         <v>1.31</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU57" t="n">
         <v>1.55</v>
@@ -12268,7 +12268,7 @@
         <v>0.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT58" t="n">
         <v>1</v>
@@ -13080,7 +13080,7 @@
         <v>0.75</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT62" t="n">
         <v>0.85</v>
@@ -14504,7 +14504,7 @@
         <v>1.31</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU69" t="n">
         <v>1.63</v>
@@ -14907,10 +14907,10 @@
         <v>1.25</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU71" t="n">
         <v>1.52</v>
@@ -15719,7 +15719,7 @@
         <v>0.75</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT75" t="n">
         <v>0.92</v>
@@ -16531,7 +16531,7 @@
         <v>0.75</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT79" t="n">
         <v>1.15</v>
@@ -16737,7 +16737,7 @@
         <v>1.54</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU80" t="n">
         <v>1.37</v>
@@ -16937,7 +16937,7 @@
         <v>0.75</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT81" t="n">
         <v>1.64</v>
@@ -17143,7 +17143,7 @@
         <v>1.07</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU82" t="n">
         <v>1.93</v>
@@ -17952,7 +17952,7 @@
         <v>0.6</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT86" t="n">
         <v>1.64</v>
@@ -18564,7 +18564,7 @@
         <v>1.71</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU89" t="n">
         <v>1.6</v>
@@ -18764,7 +18764,7 @@
         <v>0.2</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT90" t="n">
         <v>1</v>
@@ -18970,7 +18970,7 @@
         <v>1.64</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU91" t="n">
         <v>1.91</v>
@@ -19170,7 +19170,7 @@
         <v>2</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT92" t="n">
         <v>1.54</v>
@@ -19376,7 +19376,7 @@
         <v>1.43</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU93" t="n">
         <v>1.5</v>
@@ -20997,7 +20997,7 @@
         <v>1.4</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT101" t="n">
         <v>1.36</v>
@@ -22015,7 +22015,7 @@
         <v>1.54</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU106" t="n">
         <v>1.56</v>
@@ -22624,7 +22624,7 @@
         <v>2.46</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU109" t="n">
         <v>2.04</v>
@@ -22824,7 +22824,7 @@
         <v>1.17</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT110" t="n">
         <v>1.21</v>
@@ -23027,10 +23027,10 @@
         <v>0.83</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU111" t="n">
         <v>1.57</v>
@@ -24857,7 +24857,7 @@
         <v>1.31</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU120" t="n">
         <v>1.28</v>
@@ -25263,7 +25263,7 @@
         <v>1.54</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU122" t="n">
         <v>1.88</v>
@@ -25666,7 +25666,7 @@
         <v>0.29</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT124" t="n">
         <v>0.62</v>
@@ -25869,7 +25869,7 @@
         <v>2</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT125" t="n">
         <v>1.54</v>
@@ -26681,7 +26681,7 @@
         <v>0.86</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT129" t="n">
         <v>0.92</v>
@@ -26887,7 +26887,7 @@
         <v>1.57</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU130" t="n">
         <v>1.49</v>
@@ -27290,7 +27290,7 @@
         <v>1.75</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT132" t="n">
         <v>1.38</v>
@@ -27496,7 +27496,7 @@
         <v>1.71</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU133" t="n">
         <v>1.61</v>
@@ -28914,7 +28914,7 @@
         <v>1.25</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT140" t="n">
         <v>1.36</v>
@@ -29523,7 +29523,7 @@
         <v>0.88</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT143" t="n">
         <v>0.85</v>
@@ -29729,7 +29729,7 @@
         <v>2.31</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU144" t="n">
         <v>1.69</v>
@@ -31150,7 +31150,7 @@
         <v>1.57</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU151" t="n">
         <v>1.49</v>
@@ -32165,7 +32165,7 @@
         <v>1.64</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU156" t="n">
         <v>1.58</v>
@@ -32365,10 +32365,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU157" t="n">
         <v>1.5</v>
@@ -32568,7 +32568,7 @@
         <v>1.33</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT158" t="n">
         <v>1.15</v>
@@ -32974,7 +32974,7 @@
         <v>1.56</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT160" t="n">
         <v>1.38</v>
@@ -33383,7 +33383,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU162" t="n">
         <v>1.89</v>
@@ -35410,7 +35410,7 @@
         <v>0.6</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT172" t="n">
         <v>0.92</v>
@@ -35816,7 +35816,7 @@
         <v>1.3</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT174" t="n">
         <v>1.36</v>
@@ -36022,7 +36022,7 @@
         <v>2.46</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU175" t="n">
         <v>2.18</v>
@@ -36425,10 +36425,10 @@
         <v>0.7</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU177" t="n">
         <v>1.58</v>
@@ -38049,10 +38049,10 @@
         <v>0.91</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU185" t="n">
         <v>1.47</v>
@@ -38861,7 +38861,7 @@
         <v>0.64</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT189" t="n">
         <v>0.62</v>
@@ -39067,7 +39067,7 @@
         <v>1.64</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU190" t="n">
         <v>1.7</v>
@@ -39473,7 +39473,7 @@
         <v>1.43</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU192" t="n">
         <v>1.53</v>
@@ -40282,7 +40282,7 @@
         <v>1.36</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT196" t="n">
         <v>1.15</v>
@@ -40485,7 +40485,7 @@
         <v>1</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT197" t="n">
         <v>1</v>
@@ -41094,7 +41094,7 @@
         <v>2.25</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT200" t="n">
         <v>2.31</v>
@@ -41300,7 +41300,7 @@
         <v>1.5</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU201" t="n">
         <v>1.37</v>
@@ -42315,7 +42315,7 @@
         <v>1.54</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU206" t="n">
         <v>1.93</v>
@@ -42924,7 +42924,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU209" t="n">
         <v>1.94</v>
@@ -43991,6 +43991,615 @@
       </c>
       <c r="BK214" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="n">
+        <v>2593497</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>45059.39583333334</v>
+      </c>
+      <c r="F215" t="n">
+        <v>27</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Rapid Wien II</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Liefering</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
+        <v>0</v>
+      </c>
+      <c r="L215" t="n">
+        <v>0</v>
+      </c>
+      <c r="M215" t="n">
+        <v>0</v>
+      </c>
+      <c r="N215" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q215" t="n">
+        <v>2</v>
+      </c>
+      <c r="R215" t="n">
+        <v>5</v>
+      </c>
+      <c r="S215" t="n">
+        <v>7</v>
+      </c>
+      <c r="T215" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U215" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V215" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W215" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X215" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE215" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF215" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI215" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ215" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK215" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL215" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM215" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN215" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO215" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP215" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ215" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR215" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AS215" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT215" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AU215" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV215" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW215" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX215" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AY215" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ215" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BA215" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB215" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC215" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD215" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BE215" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF215" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG215" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH215" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI215" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ215" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK215" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="n">
+        <v>2593494</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>45059.39583333334</v>
+      </c>
+      <c r="F216" t="n">
+        <v>27</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Dornbirn</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Admira</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>1</v>
+      </c>
+      <c r="J216" t="n">
+        <v>1</v>
+      </c>
+      <c r="K216" t="n">
+        <v>2</v>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="n">
+        <v>2</v>
+      </c>
+      <c r="N216" t="n">
+        <v>3</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>['33', '68']</t>
+        </is>
+      </c>
+      <c r="Q216" t="n">
+        <v>6</v>
+      </c>
+      <c r="R216" t="n">
+        <v>4</v>
+      </c>
+      <c r="S216" t="n">
+        <v>10</v>
+      </c>
+      <c r="T216" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U216" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V216" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W216" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X216" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD216" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE216" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ216" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK216" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL216" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM216" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN216" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO216" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP216" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ216" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR216" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS216" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT216" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU216" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV216" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW216" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX216" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AY216" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AZ216" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BA216" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB216" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC216" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD216" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE216" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BF216" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG216" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH216" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI216" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ216" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK216" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="n">
+        <v>2593496</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>45060.22916666666</v>
+      </c>
+      <c r="F217" t="n">
+        <v>27</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Floridsdorfer AC</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Grazer AK</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>1</v>
+      </c>
+      <c r="J217" t="n">
+        <v>1</v>
+      </c>
+      <c r="K217" t="n">
+        <v>2</v>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="n">
+        <v>2</v>
+      </c>
+      <c r="N217" t="n">
+        <v>3</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>['24', '74']</t>
+        </is>
+      </c>
+      <c r="Q217" t="n">
+        <v>2</v>
+      </c>
+      <c r="R217" t="n">
+        <v>2</v>
+      </c>
+      <c r="S217" t="n">
+        <v>4</v>
+      </c>
+      <c r="T217" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U217" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V217" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W217" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X217" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AD217" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AE217" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH217" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI217" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ217" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK217" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL217" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM217" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN217" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO217" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP217" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ217" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR217" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS217" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT217" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AU217" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV217" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW217" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX217" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AY217" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AZ217" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA217" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB217" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC217" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD217" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE217" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF217" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG217" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH217" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI217" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ217" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK217" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK217"/>
+  <dimension ref="A1:BK224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.5</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT6" t="n">
         <v>1</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.36</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT14" t="n">
         <v>1.64</v>
@@ -3542,7 +3542,7 @@
         <v>1.43</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT17" t="n">
         <v>0.62</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT19" t="n">
         <v>0.86</v>
@@ -4760,7 +4760,7 @@
         <v>1.57</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AU21" t="n">
         <v>0.8100000000000001</v>
@@ -4963,7 +4963,7 @@
         <v>1.43</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU22" t="n">
         <v>1.96</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT24" t="n">
         <v>0.79</v>
@@ -5572,7 +5572,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU25" t="n">
         <v>2.6</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU26" t="n">
         <v>1.7</v>
@@ -6381,10 +6381,10 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU29" t="n">
         <v>1.53</v>
@@ -6587,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU30" t="n">
         <v>0.91</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AT31" t="n">
         <v>1.64</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU33" t="n">
         <v>1.72</v>
@@ -7399,7 +7399,7 @@
         <v>1.07</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU34" t="n">
         <v>2.04</v>
@@ -7599,7 +7599,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT35" t="n">
         <v>0.79</v>
@@ -8008,7 +8008,7 @@
         <v>1.71</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU37" t="n">
         <v>1.52</v>
@@ -9020,7 +9020,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT42" t="n">
         <v>1.36</v>
@@ -9226,7 +9226,7 @@
         <v>1.07</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU43" t="n">
         <v>2.14</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT44" t="n">
         <v>0.62</v>
@@ -9832,10 +9832,10 @@
         <v>2</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AU46" t="n">
         <v>1.71</v>
@@ -10038,7 +10038,7 @@
         <v>1</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU47" t="n">
         <v>1.05</v>
@@ -10238,10 +10238,10 @@
         <v>1.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU48" t="n">
         <v>1.91</v>
@@ -10441,10 +10441,10 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU49" t="n">
         <v>1.79</v>
@@ -10647,7 +10647,7 @@
         <v>1.43</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU50" t="n">
         <v>1.66</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT53" t="n">
         <v>1.64</v>
@@ -11662,7 +11662,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU55" t="n">
         <v>1.94</v>
@@ -11865,7 +11865,7 @@
         <v>1.64</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU56" t="n">
         <v>2.16</v>
@@ -12065,7 +12065,7 @@
         <v>0.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT57" t="n">
         <v>1.64</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT59" t="n">
         <v>1.36</v>
@@ -12877,10 +12877,10 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU61" t="n">
         <v>1.89</v>
@@ -13083,7 +13083,7 @@
         <v>1.43</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU62" t="n">
         <v>1.64</v>
@@ -13283,10 +13283,10 @@
         <v>1.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AU63" t="n">
         <v>1.81</v>
@@ -13486,10 +13486,10 @@
         <v>2.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU64" t="n">
         <v>1.72</v>
@@ -13895,7 +13895,7 @@
         <v>1.43</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU66" t="n">
         <v>1.56</v>
@@ -14095,10 +14095,10 @@
         <v>1.75</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AT67" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AU67" t="n">
         <v>1.83</v>
@@ -14301,7 +14301,7 @@
         <v>1.71</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU68" t="n">
         <v>1.53</v>
@@ -14501,7 +14501,7 @@
         <v>0.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT69" t="n">
         <v>0.86</v>
@@ -14704,7 +14704,7 @@
         <v>0.25</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT70" t="n">
         <v>0.62</v>
@@ -15110,7 +15110,7 @@
         <v>1</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT72" t="n">
         <v>1.21</v>
@@ -15316,7 +15316,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU73" t="n">
         <v>2.03</v>
@@ -15722,7 +15722,7 @@
         <v>1</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU75" t="n">
         <v>1.45</v>
@@ -15925,7 +15925,7 @@
         <v>1.5</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU76" t="n">
         <v>1.34</v>
@@ -16328,7 +16328,7 @@
         <v>1.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT78" t="n">
         <v>1.36</v>
@@ -16534,7 +16534,7 @@
         <v>1.36</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU79" t="n">
         <v>1.69</v>
@@ -16734,7 +16734,7 @@
         <v>0.25</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT80" t="n">
         <v>0.79</v>
@@ -17343,10 +17343,10 @@
         <v>1.2</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU83" t="n">
         <v>1.61</v>
@@ -17549,7 +17549,7 @@
         <v>1.5</v>
       </c>
       <c r="AT84" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AU84" t="n">
         <v>1.27</v>
@@ -17749,10 +17749,10 @@
         <v>0.6</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU85" t="n">
         <v>1.39</v>
@@ -18155,10 +18155,10 @@
         <v>1.8</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU87" t="n">
         <v>1.87</v>
@@ -18361,7 +18361,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU88" t="n">
         <v>1.91</v>
@@ -19173,7 +19173,7 @@
         <v>1.36</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU92" t="n">
         <v>1.65</v>
@@ -19576,7 +19576,7 @@
         <v>0.4</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AT94" t="n">
         <v>0.62</v>
@@ -19779,7 +19779,7 @@
         <v>1.4</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT95" t="n">
         <v>1.21</v>
@@ -19985,7 +19985,7 @@
         <v>1.57</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU96" t="n">
         <v>1.47</v>
@@ -20388,10 +20388,10 @@
         <v>1</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU98" t="n">
         <v>1.91</v>
@@ -20797,7 +20797,7 @@
         <v>1.5</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU100" t="n">
         <v>1.33</v>
@@ -21203,7 +21203,7 @@
         <v>1.71</v>
       </c>
       <c r="AT102" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AU102" t="n">
         <v>1.58</v>
@@ -21403,7 +21403,7 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT103" t="n">
         <v>1.64</v>
@@ -21606,10 +21606,10 @@
         <v>1.83</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU104" t="n">
         <v>1.59</v>
@@ -21809,10 +21809,10 @@
         <v>2</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU105" t="n">
         <v>1.46</v>
@@ -22012,7 +22012,7 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT106" t="n">
         <v>1.64</v>
@@ -22218,7 +22218,7 @@
         <v>1.64</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU107" t="n">
         <v>1.77</v>
@@ -22621,7 +22621,7 @@
         <v>0.67</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AT109" t="n">
         <v>0.79</v>
@@ -23233,7 +23233,7 @@
         <v>1.43</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU112" t="n">
         <v>1.39</v>
@@ -23639,7 +23639,7 @@
         <v>1.64</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU114" t="n">
         <v>1.73</v>
@@ -23842,7 +23842,7 @@
         <v>1.57</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU115" t="n">
         <v>1.49</v>
@@ -24045,7 +24045,7 @@
         <v>1.07</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU116" t="n">
         <v>1.81</v>
@@ -24245,7 +24245,7 @@
         <v>1.29</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT117" t="n">
         <v>1.64</v>
@@ -24651,7 +24651,7 @@
         <v>1.43</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT119" t="n">
         <v>1.21</v>
@@ -24854,7 +24854,7 @@
         <v>0.57</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT120" t="n">
         <v>0.79</v>
@@ -25260,7 +25260,7 @@
         <v>0.71</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT122" t="n">
         <v>0.86</v>
@@ -25872,7 +25872,7 @@
         <v>1.43</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU125" t="n">
         <v>1.5</v>
@@ -26072,10 +26072,10 @@
         <v>2.29</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT126" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AU126" t="n">
         <v>1.54</v>
@@ -26275,10 +26275,10 @@
         <v>1.57</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU127" t="n">
         <v>2.08</v>
@@ -26478,7 +26478,7 @@
         <v>0.71</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT128" t="n">
         <v>1</v>
@@ -26684,7 +26684,7 @@
         <v>1.36</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU129" t="n">
         <v>1.75</v>
@@ -27087,10 +27087,10 @@
         <v>1.13</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU131" t="n">
         <v>1.44</v>
@@ -27293,7 +27293,7 @@
         <v>1.36</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU132" t="n">
         <v>1.74</v>
@@ -27899,10 +27899,10 @@
         <v>0.75</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU135" t="n">
         <v>1.27</v>
@@ -28102,7 +28102,7 @@
         <v>1.25</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT136" t="n">
         <v>1.21</v>
@@ -28308,7 +28308,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT137" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AU137" t="n">
         <v>2.04</v>
@@ -28511,7 +28511,7 @@
         <v>1.07</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU138" t="n">
         <v>1.76</v>
@@ -29120,7 +29120,7 @@
         <v>1.64</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU141" t="n">
         <v>1.73</v>
@@ -29320,7 +29320,7 @@
         <v>0.63</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AT142" t="n">
         <v>1</v>
@@ -29526,7 +29526,7 @@
         <v>1</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU143" t="n">
         <v>1.56</v>
@@ -29726,7 +29726,7 @@
         <v>0.63</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT144" t="n">
         <v>0.86</v>
@@ -29929,7 +29929,7 @@
         <v>1.63</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT145" t="n">
         <v>1.64</v>
@@ -30335,10 +30335,10 @@
         <v>1.56</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU147" t="n">
         <v>1.51</v>
@@ -30741,10 +30741,10 @@
         <v>1.89</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU149" t="n">
         <v>1.91</v>
@@ -30947,7 +30947,7 @@
         <v>1.07</v>
       </c>
       <c r="AT150" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AU150" t="n">
         <v>1.66</v>
@@ -31350,10 +31350,10 @@
         <v>1.11</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU152" t="n">
         <v>1.42</v>
@@ -31959,7 +31959,7 @@
         <v>1.44</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT155" t="n">
         <v>1.36</v>
@@ -32571,7 +32571,7 @@
         <v>1</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU158" t="n">
         <v>1.61</v>
@@ -32771,10 +32771,10 @@
         <v>0.67</v>
       </c>
       <c r="AS159" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU159" t="n">
         <v>1.67</v>
@@ -32977,7 +32977,7 @@
         <v>1.36</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU160" t="n">
         <v>1.74</v>
@@ -33177,7 +33177,7 @@
         <v>1.44</v>
       </c>
       <c r="AS161" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AT161" t="n">
         <v>1.64</v>
@@ -33586,7 +33586,7 @@
         <v>1.5</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU163" t="n">
         <v>1.38</v>
@@ -33786,10 +33786,10 @@
         <v>1</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU164" t="n">
         <v>1.49</v>
@@ -34195,7 +34195,7 @@
         <v>1.43</v>
       </c>
       <c r="AT166" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AU166" t="n">
         <v>1.44</v>
@@ -34598,7 +34598,7 @@
         <v>0.6</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT168" t="n">
         <v>1</v>
@@ -34801,10 +34801,10 @@
         <v>1.7</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU169" t="n">
         <v>1.41</v>
@@ -35007,7 +35007,7 @@
         <v>1.64</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU170" t="n">
         <v>1.57</v>
@@ -35210,7 +35210,7 @@
         <v>1.71</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU171" t="n">
         <v>1.63</v>
@@ -35413,7 +35413,7 @@
         <v>1.43</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU172" t="n">
         <v>1.46</v>
@@ -35613,7 +35613,7 @@
         <v>1.3</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT173" t="n">
         <v>1.64</v>
@@ -36019,7 +36019,7 @@
         <v>0.6</v>
       </c>
       <c r="AS175" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AT175" t="n">
         <v>0.86</v>
@@ -36222,7 +36222,7 @@
         <v>0.7</v>
       </c>
       <c r="AS176" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT176" t="n">
         <v>0.62</v>
@@ -36631,7 +36631,7 @@
         <v>1.43</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU178" t="n">
         <v>1.42</v>
@@ -36831,7 +36831,7 @@
         <v>1.45</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT179" t="n">
         <v>1.64</v>
@@ -37034,10 +37034,10 @@
         <v>2.36</v>
       </c>
       <c r="AS180" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT180" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AU180" t="n">
         <v>1.75</v>
@@ -37443,7 +37443,7 @@
         <v>1.57</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU182" t="n">
         <v>1.41</v>
@@ -37646,7 +37646,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU183" t="n">
         <v>1.87</v>
@@ -37846,7 +37846,7 @@
         <v>0.82</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT184" t="n">
         <v>1</v>
@@ -38252,7 +38252,7 @@
         <v>1.45</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT186" t="n">
         <v>1.36</v>
@@ -38458,7 +38458,7 @@
         <v>1.71</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU187" t="n">
         <v>1.64</v>
@@ -38658,10 +38658,10 @@
         <v>1.36</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU188" t="n">
         <v>1.39</v>
@@ -39267,7 +39267,7 @@
         <v>1.42</v>
       </c>
       <c r="AS191" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AT191" t="n">
         <v>1.21</v>
@@ -40082,7 +40082,7 @@
         <v>1.57</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU195" t="n">
         <v>1.4</v>
@@ -40285,7 +40285,7 @@
         <v>1.43</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU196" t="n">
         <v>1.5</v>
@@ -40688,7 +40688,7 @@
         <v>1.42</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT198" t="n">
         <v>1.64</v>
@@ -40891,7 +40891,7 @@
         <v>1.42</v>
       </c>
       <c r="AS199" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT199" t="n">
         <v>1.64</v>
@@ -41097,7 +41097,7 @@
         <v>1</v>
       </c>
       <c r="AT200" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AU200" t="n">
         <v>1.66</v>
@@ -41503,7 +41503,7 @@
         <v>1.07</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU202" t="n">
         <v>1.64</v>
@@ -41703,10 +41703,10 @@
         <v>1.25</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU203" t="n">
         <v>1.54</v>
@@ -41906,10 +41906,10 @@
         <v>1.42</v>
       </c>
       <c r="AS204" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AT204" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU204" t="n">
         <v>2.19</v>
@@ -42112,7 +42112,7 @@
         <v>1.71</v>
       </c>
       <c r="AT205" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU205" t="n">
         <v>1.64</v>
@@ -42312,7 +42312,7 @@
         <v>1.42</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT206" t="n">
         <v>1.64</v>
@@ -42515,7 +42515,7 @@
         <v>1.31</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT207" t="n">
         <v>1.21</v>
@@ -43533,7 +43533,7 @@
         <v>1.5</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU212" t="n">
         <v>1.39</v>
@@ -44600,6 +44600,1427 @@
       </c>
       <c r="BK217" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>2593506</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45065.54861111111</v>
+      </c>
+      <c r="F218" t="n">
+        <v>28</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Admira</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>First Vienna</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>1</v>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="n">
+        <v>0</v>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="n">
+        <v>1</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="Q218" t="n">
+        <v>8</v>
+      </c>
+      <c r="R218" t="n">
+        <v>5</v>
+      </c>
+      <c r="S218" t="n">
+        <v>13</v>
+      </c>
+      <c r="T218" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U218" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V218" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W218" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X218" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ218" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF218" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG218" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH218" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>2593502</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45065.54861111111</v>
+      </c>
+      <c r="F219" t="n">
+        <v>28</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Blau-Weiß Linz</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Horn</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L219" t="n">
+        <v>0</v>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="n">
+        <v>1</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q219" t="n">
+        <v>14</v>
+      </c>
+      <c r="R219" t="n">
+        <v>1</v>
+      </c>
+      <c r="S219" t="n">
+        <v>15</v>
+      </c>
+      <c r="T219" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U219" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V219" t="n">
+        <v>7</v>
+      </c>
+      <c r="W219" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X219" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ219" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK219" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL219" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT219" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AU219" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW219" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AX219" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AY219" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AZ219" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="BA219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB219" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC219" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD219" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE219" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF219" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG219" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH219" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI219" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ219" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK219" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>2593503</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45065.54861111111</v>
+      </c>
+      <c r="F220" t="n">
+        <v>28</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Dornbirn</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Floridsdorfer AC</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
+        <v>0</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0</v>
+      </c>
+      <c r="N220" t="n">
+        <v>0</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q220" t="n">
+        <v>5</v>
+      </c>
+      <c r="R220" t="n">
+        <v>8</v>
+      </c>
+      <c r="S220" t="n">
+        <v>13</v>
+      </c>
+      <c r="T220" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U220" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V220" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W220" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X220" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ220" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BA220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BF220" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG220" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH220" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ220" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>2593500</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45065.54861111111</v>
+      </c>
+      <c r="F221" t="n">
+        <v>28</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Liefering</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Lafnitz</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>1</v>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="n">
+        <v>3</v>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="n">
+        <v>4</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>['75', '76', '78']</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q221" t="n">
+        <v>4</v>
+      </c>
+      <c r="R221" t="n">
+        <v>2</v>
+      </c>
+      <c r="S221" t="n">
+        <v>6</v>
+      </c>
+      <c r="T221" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U221" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V221" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W221" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X221" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ221" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA221" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF221" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG221" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH221" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI221" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ221" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK221" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>2593501</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45065.54861111111</v>
+      </c>
+      <c r="F222" t="n">
+        <v>28</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Amstetten</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Austria Wien II</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>1</v>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="n">
+        <v>2</v>
+      </c>
+      <c r="M222" t="n">
+        <v>2</v>
+      </c>
+      <c r="N222" t="n">
+        <v>4</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>['66', '90+2']</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>['16', '69']</t>
+        </is>
+      </c>
+      <c r="Q222" t="n">
+        <v>8</v>
+      </c>
+      <c r="R222" t="n">
+        <v>7</v>
+      </c>
+      <c r="S222" t="n">
+        <v>15</v>
+      </c>
+      <c r="T222" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U222" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V222" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W222" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X222" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP222" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ222" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT222" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AU222" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ222" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE222" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BF222" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG222" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH222" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI222" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ222" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK222" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>2593504</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45066.39583333334</v>
+      </c>
+      <c r="F223" t="n">
+        <v>28</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Grazer AK</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Rapid Wien II</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L223" t="n">
+        <v>2</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N223" t="n">
+        <v>2</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>['54', '70']</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q223" t="n">
+        <v>5</v>
+      </c>
+      <c r="R223" t="n">
+        <v>3</v>
+      </c>
+      <c r="S223" t="n">
+        <v>8</v>
+      </c>
+      <c r="T223" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U223" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V223" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W223" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X223" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP223" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ223" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AR223" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AS223" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AT223" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AU223" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW223" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX223" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY223" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ223" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BA223" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB223" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC223" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD223" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BE223" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF223" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG223" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH223" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI223" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ223" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK223" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="n">
+        <v>2593505</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>45067.22916666666</v>
+      </c>
+      <c r="F224" t="n">
+        <v>28</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Kapfenberger SV</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>St. Pölten</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" t="n">
+        <v>1</v>
+      </c>
+      <c r="K224" t="n">
+        <v>2</v>
+      </c>
+      <c r="L224" t="n">
+        <v>2</v>
+      </c>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="n">
+        <v>3</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>['19', '64']</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="Q224" t="n">
+        <v>4</v>
+      </c>
+      <c r="R224" t="n">
+        <v>8</v>
+      </c>
+      <c r="S224" t="n">
+        <v>12</v>
+      </c>
+      <c r="T224" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U224" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V224" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W224" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X224" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC224" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AD224" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AE224" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AF224" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG224" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH224" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI224" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ224" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK224" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL224" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM224" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN224" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO224" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP224" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ224" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR224" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AS224" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT224" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AU224" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV224" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW224" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX224" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AY224" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ224" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BA224" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB224" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC224" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD224" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE224" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BF224" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG224" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH224" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI224" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ224" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK224" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK224"/>
+  <dimension ref="A1:BK225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AT16" t="n">
         <v>1.07</v>
@@ -3948,7 +3948,7 @@
         <v>1.64</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AT25" t="n">
         <v>0.79</v>
@@ -5978,7 +5978,7 @@
         <v>1.43</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU27" t="n">
         <v>1.24</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AT40" t="n">
         <v>1.64</v>
@@ -9429,7 +9429,7 @@
         <v>1.43</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU44" t="n">
         <v>1.3</v>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AT55" t="n">
         <v>0.93</v>
@@ -12677,7 +12677,7 @@
         <v>1.07</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU60" t="n">
         <v>1.96</v>
@@ -14707,7 +14707,7 @@
         <v>1.5</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU70" t="n">
         <v>1.71</v>
@@ -15313,7 +15313,7 @@
         <v>2</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AT73" t="n">
         <v>1.36</v>
@@ -18358,7 +18358,7 @@
         <v>1.6</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AT88" t="n">
         <v>1.5</v>
@@ -19579,7 +19579,7 @@
         <v>2.29</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU94" t="n">
         <v>1.92</v>
@@ -20185,7 +20185,7 @@
         <v>2</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AT97" t="n">
         <v>1.64</v>
@@ -22421,7 +22421,7 @@
         <v>1.57</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU108" t="n">
         <v>1.43</v>
@@ -23433,7 +23433,7 @@
         <v>0.33</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AT113" t="n">
         <v>1</v>
@@ -25669,7 +25669,7 @@
         <v>1</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU124" t="n">
         <v>1.49</v>
@@ -28305,7 +28305,7 @@
         <v>2.38</v>
       </c>
       <c r="AS137" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AT137" t="n">
         <v>2.14</v>
@@ -28714,7 +28714,7 @@
         <v>1.43</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU139" t="n">
         <v>1.55</v>
@@ -31553,7 +31553,7 @@
         <v>1.22</v>
       </c>
       <c r="AS153" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AT153" t="n">
         <v>1.21</v>
@@ -31759,7 +31759,7 @@
         <v>1.71</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU154" t="n">
         <v>1.63</v>
@@ -33380,7 +33380,7 @@
         <v>1.1</v>
       </c>
       <c r="AS162" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AT162" t="n">
         <v>1.64</v>
@@ -36225,7 +36225,7 @@
         <v>2.36</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU176" t="n">
         <v>1.77</v>
@@ -37643,7 +37643,7 @@
         <v>1.64</v>
       </c>
       <c r="AS183" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AT183" t="n">
         <v>1.64</v>
@@ -38864,7 +38864,7 @@
         <v>1.36</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU189" t="n">
         <v>1.7</v>
@@ -42721,7 +42721,7 @@
         <v>1.64</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU208" t="n">
         <v>1.67</v>
@@ -42921,7 +42921,7 @@
         <v>0.5</v>
       </c>
       <c r="AS209" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AT209" t="n">
         <v>0.86</v>
@@ -46021,6 +46021,209 @@
       </c>
       <c r="BK224" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="n">
+        <v>2593507</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>45067.3125</v>
+      </c>
+      <c r="F225" t="n">
+        <v>28</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Sturm Graz II</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Vorwärts Steyr</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L225" t="n">
+        <v>2</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0</v>
+      </c>
+      <c r="N225" t="n">
+        <v>2</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>['84', '87']</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q225" t="n">
+        <v>7</v>
+      </c>
+      <c r="R225" t="n">
+        <v>5</v>
+      </c>
+      <c r="S225" t="n">
+        <v>12</v>
+      </c>
+      <c r="T225" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U225" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V225" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W225" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X225" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC225" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD225" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE225" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF225" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI225" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ225" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AK225" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AL225" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM225" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN225" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO225" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP225" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ225" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR225" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AS225" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AT225" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU225" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AV225" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW225" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX225" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY225" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ225" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA225" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB225" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC225" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD225" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BE225" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BF225" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG225" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH225" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI225" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ225" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK225" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK225"/>
+  <dimension ref="A1:BK233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.57</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT3" t="n">
         <v>0.79</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT4" t="n">
         <v>1.36</v>
@@ -1512,7 +1512,7 @@
         <v>1.07</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.5</v>
       </c>
       <c r="AT6" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.64</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT8" t="n">
         <v>1.36</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT16" t="n">
         <v>1.07</v>
@@ -4151,7 +4151,7 @@
         <v>1.07</v>
       </c>
       <c r="AT18" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU18" t="n">
         <v>1.74</v>
@@ -4354,7 +4354,7 @@
         <v>1.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU19" t="n">
         <v>1.54</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU20" t="n">
         <v>1.86</v>
@@ -4760,7 +4760,7 @@
         <v>1.57</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AU21" t="n">
         <v>0.8100000000000001</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT22" t="n">
         <v>1.36</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU23" t="n">
         <v>1.4</v>
@@ -5366,10 +5366,10 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU24" t="n">
         <v>1.45</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT25" t="n">
         <v>0.79</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT27" t="n">
         <v>0.57</v>
@@ -6384,7 +6384,7 @@
         <v>1.64</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU29" t="n">
         <v>1.53</v>
@@ -6990,10 +6990,10 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU32" t="n">
         <v>1.08</v>
@@ -7602,7 +7602,7 @@
         <v>1.5</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU35" t="n">
         <v>1.69</v>
@@ -7805,7 +7805,7 @@
         <v>1.64</v>
       </c>
       <c r="AT36" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU36" t="n">
         <v>2.23</v>
@@ -8005,7 +8005,7 @@
         <v>2</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT37" t="n">
         <v>1.36</v>
@@ -8211,7 +8211,7 @@
         <v>1.57</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU38" t="n">
         <v>0.97</v>
@@ -8411,10 +8411,10 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU39" t="n">
         <v>1.49</v>
@@ -8614,10 +8614,10 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU40" t="n">
         <v>2.12</v>
@@ -8817,7 +8817,7 @@
         <v>0.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT41" t="n">
         <v>1.64</v>
@@ -9629,10 +9629,10 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU45" t="n">
         <v>1.66</v>
@@ -9835,7 +9835,7 @@
         <v>1.43</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AU46" t="n">
         <v>1.71</v>
@@ -10038,7 +10038,7 @@
         <v>1</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU47" t="n">
         <v>1.05</v>
@@ -10238,7 +10238,7 @@
         <v>1.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT48" t="n">
         <v>1.07</v>
@@ -10644,10 +10644,10 @@
         <v>1.67</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU50" t="n">
         <v>1.66</v>
@@ -10847,10 +10847,10 @@
         <v>0.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU51" t="n">
         <v>1.59</v>
@@ -11050,10 +11050,10 @@
         <v>0.67</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU52" t="n">
         <v>1.4</v>
@@ -11256,7 +11256,7 @@
         <v>1.5</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU53" t="n">
         <v>1.9</v>
@@ -11456,10 +11456,10 @@
         <v>0.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU54" t="n">
         <v>1.09</v>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT55" t="n">
         <v>0.93</v>
@@ -12271,7 +12271,7 @@
         <v>1</v>
       </c>
       <c r="AT58" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU58" t="n">
         <v>1.21</v>
@@ -13080,7 +13080,7 @@
         <v>0.75</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT62" t="n">
         <v>0.79</v>
@@ -13286,7 +13286,7 @@
         <v>1.64</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AU63" t="n">
         <v>1.81</v>
@@ -13486,7 +13486,7 @@
         <v>2.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT64" t="n">
         <v>1.64</v>
@@ -13692,7 +13692,7 @@
         <v>1.57</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU65" t="n">
         <v>1.21</v>
@@ -13892,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT66" t="n">
         <v>0.93</v>
@@ -14098,7 +14098,7 @@
         <v>2.29</v>
       </c>
       <c r="AT67" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AU67" t="n">
         <v>1.83</v>
@@ -14298,10 +14298,10 @@
         <v>1.25</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU68" t="n">
         <v>1.53</v>
@@ -14504,7 +14504,7 @@
         <v>1.43</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU69" t="n">
         <v>1.63</v>
@@ -14907,7 +14907,7 @@
         <v>1.25</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT71" t="n">
         <v>1.64</v>
@@ -15113,7 +15113,7 @@
         <v>1.64</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU72" t="n">
         <v>1.86</v>
@@ -15313,7 +15313,7 @@
         <v>2</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT73" t="n">
         <v>1.36</v>
@@ -15519,7 +15519,7 @@
         <v>1.57</v>
       </c>
       <c r="AT74" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU74" t="n">
         <v>1.43</v>
@@ -15922,7 +15922,7 @@
         <v>1.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT76" t="n">
         <v>1.64</v>
@@ -16128,7 +16128,7 @@
         <v>1.64</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU77" t="n">
         <v>1.92</v>
@@ -16328,7 +16328,7 @@
         <v>1.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT78" t="n">
         <v>1.36</v>
@@ -16531,7 +16531,7 @@
         <v>0.75</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT79" t="n">
         <v>1.07</v>
@@ -16737,7 +16737,7 @@
         <v>1.43</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU80" t="n">
         <v>1.37</v>
@@ -16937,10 +16937,10 @@
         <v>0.75</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU81" t="n">
         <v>1.65</v>
@@ -17546,10 +17546,10 @@
         <v>2</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT84" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AU84" t="n">
         <v>1.27</v>
@@ -17955,7 +17955,7 @@
         <v>1</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU86" t="n">
         <v>1.66</v>
@@ -18358,10 +18358,10 @@
         <v>1.6</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU88" t="n">
         <v>1.91</v>
@@ -18561,10 +18561,10 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU89" t="n">
         <v>1.6</v>
@@ -18764,10 +18764,10 @@
         <v>0.2</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT90" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU90" t="n">
         <v>1.49</v>
@@ -19170,7 +19170,7 @@
         <v>2</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT92" t="n">
         <v>1.64</v>
@@ -19373,10 +19373,10 @@
         <v>0.2</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU93" t="n">
         <v>1.5</v>
@@ -19782,7 +19782,7 @@
         <v>1.43</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU95" t="n">
         <v>1.34</v>
@@ -20185,10 +20185,10 @@
         <v>2</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU97" t="n">
         <v>1.92</v>
@@ -20594,7 +20594,7 @@
         <v>1.07</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU99" t="n">
         <v>1.84</v>
@@ -20794,7 +20794,7 @@
         <v>1.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT100" t="n">
         <v>1.07</v>
@@ -21200,10 +21200,10 @@
         <v>2.17</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT102" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AU102" t="n">
         <v>1.58</v>
@@ -21406,7 +21406,7 @@
         <v>1.43</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU103" t="n">
         <v>1.38</v>
@@ -21606,10 +21606,10 @@
         <v>1.83</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU104" t="n">
         <v>1.59</v>
@@ -22624,7 +22624,7 @@
         <v>2.29</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU109" t="n">
         <v>2.04</v>
@@ -22824,10 +22824,10 @@
         <v>1.17</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU110" t="n">
         <v>1.48</v>
@@ -23027,10 +23027,10 @@
         <v>0.83</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU111" t="n">
         <v>1.57</v>
@@ -23230,7 +23230,7 @@
         <v>2.17</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT112" t="n">
         <v>1.64</v>
@@ -23433,10 +23433,10 @@
         <v>0.33</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT113" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU113" t="n">
         <v>1.99</v>
@@ -24248,7 +24248,7 @@
         <v>1.43</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU117" t="n">
         <v>1.53</v>
@@ -24448,7 +24448,7 @@
         <v>1.17</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT118" t="n">
         <v>1.36</v>
@@ -24651,10 +24651,10 @@
         <v>1.43</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU119" t="n">
         <v>1.54</v>
@@ -24857,7 +24857,7 @@
         <v>1.43</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU120" t="n">
         <v>1.28</v>
@@ -25057,10 +25057,10 @@
         <v>1.86</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU121" t="n">
         <v>1.55</v>
@@ -25263,7 +25263,7 @@
         <v>1.64</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU122" t="n">
         <v>1.88</v>
@@ -25463,7 +25463,7 @@
         <v>1.43</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT123" t="n">
         <v>1.36</v>
@@ -25869,7 +25869,7 @@
         <v>2</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT125" t="n">
         <v>1.64</v>
@@ -26075,7 +26075,7 @@
         <v>1.5</v>
       </c>
       <c r="AT126" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AU126" t="n">
         <v>1.54</v>
@@ -26278,7 +26278,7 @@
         <v>2.29</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU127" t="n">
         <v>2.08</v>
@@ -26478,10 +26478,10 @@
         <v>0.71</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT128" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU128" t="n">
         <v>1.61</v>
@@ -26681,7 +26681,7 @@
         <v>0.86</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT129" t="n">
         <v>0.93</v>
@@ -26887,7 +26887,7 @@
         <v>1.57</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU130" t="n">
         <v>1.49</v>
@@ -27290,7 +27290,7 @@
         <v>1.75</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT132" t="n">
         <v>1.36</v>
@@ -27493,7 +27493,7 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT133" t="n">
         <v>1.64</v>
@@ -27696,10 +27696,10 @@
         <v>1.5</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU134" t="n">
         <v>1.35</v>
@@ -28105,7 +28105,7 @@
         <v>1.5</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU136" t="n">
         <v>1.45</v>
@@ -28305,10 +28305,10 @@
         <v>2.38</v>
       </c>
       <c r="AS137" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT137" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AU137" t="n">
         <v>2.04</v>
@@ -28511,7 +28511,7 @@
         <v>1.07</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU138" t="n">
         <v>1.76</v>
@@ -28711,7 +28711,7 @@
         <v>0.63</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT139" t="n">
         <v>0.57</v>
@@ -28914,7 +28914,7 @@
         <v>1.25</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT140" t="n">
         <v>1.36</v>
@@ -29323,7 +29323,7 @@
         <v>2.29</v>
       </c>
       <c r="AT142" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU142" t="n">
         <v>2.08</v>
@@ -29726,10 +29726,10 @@
         <v>0.63</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU144" t="n">
         <v>1.69</v>
@@ -29932,7 +29932,7 @@
         <v>1.64</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU145" t="n">
         <v>1.87</v>
@@ -30132,10 +30132,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT146" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU146" t="n">
         <v>1.33</v>
@@ -30538,10 +30538,10 @@
         <v>1.67</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU148" t="n">
         <v>1.5</v>
@@ -30947,7 +30947,7 @@
         <v>1.07</v>
       </c>
       <c r="AT150" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AU150" t="n">
         <v>1.66</v>
@@ -31553,10 +31553,10 @@
         <v>1.22</v>
       </c>
       <c r="AS153" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU153" t="n">
         <v>1.93</v>
@@ -31756,7 +31756,7 @@
         <v>0.67</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT154" t="n">
         <v>0.57</v>
@@ -32165,7 +32165,7 @@
         <v>1.64</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU156" t="n">
         <v>1.58</v>
@@ -32365,10 +32365,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU157" t="n">
         <v>1.5</v>
@@ -32771,7 +32771,7 @@
         <v>0.67</v>
       </c>
       <c r="AS159" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT159" t="n">
         <v>0.93</v>
@@ -32974,10 +32974,10 @@
         <v>1.56</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU160" t="n">
         <v>1.74</v>
@@ -33180,7 +33180,7 @@
         <v>2.29</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU161" t="n">
         <v>2.14</v>
@@ -33380,7 +33380,7 @@
         <v>1.1</v>
       </c>
       <c r="AS162" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT162" t="n">
         <v>1.64</v>
@@ -33583,7 +33583,7 @@
         <v>1.4</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT163" t="n">
         <v>1.36</v>
@@ -33992,7 +33992,7 @@
         <v>1.07</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU165" t="n">
         <v>1.62</v>
@@ -34192,10 +34192,10 @@
         <v>2.5</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT166" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AU166" t="n">
         <v>1.44</v>
@@ -34398,7 +34398,7 @@
         <v>1.57</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU167" t="n">
         <v>1.41</v>
@@ -34601,7 +34601,7 @@
         <v>1.64</v>
       </c>
       <c r="AT168" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU168" t="n">
         <v>1.91</v>
@@ -35007,7 +35007,7 @@
         <v>1.64</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU170" t="n">
         <v>1.57</v>
@@ -35207,7 +35207,7 @@
         <v>1.2</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT171" t="n">
         <v>1.07</v>
@@ -35410,7 +35410,7 @@
         <v>0.6</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT172" t="n">
         <v>0.93</v>
@@ -35616,7 +35616,7 @@
         <v>1.43</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU173" t="n">
         <v>1.4</v>
@@ -35816,7 +35816,7 @@
         <v>1.3</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT174" t="n">
         <v>1.36</v>
@@ -36022,7 +36022,7 @@
         <v>2.29</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU175" t="n">
         <v>2.18</v>
@@ -36222,7 +36222,7 @@
         <v>0.7</v>
       </c>
       <c r="AS176" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT176" t="n">
         <v>0.57</v>
@@ -36428,7 +36428,7 @@
         <v>1</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU177" t="n">
         <v>1.58</v>
@@ -36628,7 +36628,7 @@
         <v>1</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT178" t="n">
         <v>0.79</v>
@@ -36834,7 +36834,7 @@
         <v>1.64</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU179" t="n">
         <v>1.9</v>
@@ -37034,10 +37034,10 @@
         <v>2.36</v>
       </c>
       <c r="AS180" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT180" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AU180" t="n">
         <v>1.75</v>
@@ -37240,7 +37240,7 @@
         <v>1.07</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU181" t="n">
         <v>1.59</v>
@@ -37643,7 +37643,7 @@
         <v>1.64</v>
       </c>
       <c r="AS183" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT183" t="n">
         <v>1.64</v>
@@ -37849,7 +37849,7 @@
         <v>1.43</v>
       </c>
       <c r="AT184" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU184" t="n">
         <v>1.37</v>
@@ -38049,10 +38049,10 @@
         <v>0.91</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU185" t="n">
         <v>1.47</v>
@@ -38455,7 +38455,7 @@
         <v>0.82</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT187" t="n">
         <v>0.93</v>
@@ -38661,7 +38661,7 @@
         <v>1.43</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU188" t="n">
         <v>1.39</v>
@@ -38861,7 +38861,7 @@
         <v>0.64</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT189" t="n">
         <v>0.57</v>
@@ -39067,7 +39067,7 @@
         <v>1.64</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU190" t="n">
         <v>1.7</v>
@@ -39270,7 +39270,7 @@
         <v>2.29</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU191" t="n">
         <v>2.18</v>
@@ -39470,7 +39470,7 @@
         <v>1.27</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT192" t="n">
         <v>1.64</v>
@@ -39673,10 +39673,10 @@
         <v>1.27</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU193" t="n">
         <v>1.34</v>
@@ -40282,7 +40282,7 @@
         <v>1.36</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT196" t="n">
         <v>1.07</v>
@@ -40485,10 +40485,10 @@
         <v>1</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT197" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU197" t="n">
         <v>1.66</v>
@@ -40691,7 +40691,7 @@
         <v>1.43</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU198" t="n">
         <v>1.37</v>
@@ -40891,10 +40891,10 @@
         <v>1.42</v>
       </c>
       <c r="AS199" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU199" t="n">
         <v>1.68</v>
@@ -41097,7 +41097,7 @@
         <v>1</v>
       </c>
       <c r="AT200" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AU200" t="n">
         <v>1.66</v>
@@ -41297,10 +41297,10 @@
         <v>0.83</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU201" t="n">
         <v>1.37</v>
@@ -41706,7 +41706,7 @@
         <v>1.5</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU203" t="n">
         <v>1.54</v>
@@ -42109,7 +42109,7 @@
         <v>0.92</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT205" t="n">
         <v>0.79</v>
@@ -42518,7 +42518,7 @@
         <v>1.43</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU207" t="n">
         <v>1.41</v>
@@ -42921,10 +42921,10 @@
         <v>0.5</v>
       </c>
       <c r="AS209" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU209" t="n">
         <v>1.94</v>
@@ -43327,10 +43327,10 @@
         <v>1</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT211" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU211" t="n">
         <v>1.66</v>
@@ -43530,7 +43530,7 @@
         <v>1</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT212" t="n">
         <v>0.93</v>
@@ -43733,10 +43733,10 @@
         <v>1.54</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU213" t="n">
         <v>1.53</v>
@@ -43939,7 +43939,7 @@
         <v>1.64</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU214" t="n">
         <v>1.67</v>
@@ -44139,10 +44139,10 @@
         <v>0.77</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT215" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU215" t="n">
         <v>1.67</v>
@@ -44345,7 +44345,7 @@
         <v>1</v>
       </c>
       <c r="AT216" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU216" t="n">
         <v>1.61</v>
@@ -44545,7 +44545,7 @@
         <v>1.54</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT217" t="n">
         <v>1.64</v>
@@ -44751,7 +44751,7 @@
         <v>1.43</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU218" t="n">
         <v>1.35</v>
@@ -45763,7 +45763,7 @@
         <v>0.85</v>
       </c>
       <c r="AS223" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT223" t="n">
         <v>0.79</v>
@@ -45969,7 +45969,7 @@
         <v>1.43</v>
       </c>
       <c r="AT224" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AU224" t="n">
         <v>1.43</v>
@@ -46169,7 +46169,7 @@
         <v>0.62</v>
       </c>
       <c r="AS225" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT225" t="n">
         <v>0.57</v>
@@ -46224,6 +46224,1630 @@
       </c>
       <c r="BK225" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="n">
+        <v>2593513</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>45072.59375</v>
+      </c>
+      <c r="F226" t="n">
+        <v>29</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Grazer AK</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Amstetten</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L226" t="n">
+        <v>3</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N226" t="n">
+        <v>3</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>['53', '75', '90+2']</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q226" t="n">
+        <v>7</v>
+      </c>
+      <c r="R226" t="n">
+        <v>5</v>
+      </c>
+      <c r="S226" t="n">
+        <v>12</v>
+      </c>
+      <c r="T226" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U226" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V226" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W226" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X226" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT226" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ226" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BA226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB226" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC226" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD226" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE226" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BF226" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG226" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH226" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI226" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ226" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK226" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>2593514</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45072.59375</v>
+      </c>
+      <c r="F227" t="n">
+        <v>29</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Rapid Wien II</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Blau-Weiß Linz</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L227" t="n">
+        <v>0</v>
+      </c>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="n">
+        <v>1</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="Q227" t="n">
+        <v>2</v>
+      </c>
+      <c r="R227" t="n">
+        <v>5</v>
+      </c>
+      <c r="S227" t="n">
+        <v>7</v>
+      </c>
+      <c r="T227" t="n">
+        <v>7</v>
+      </c>
+      <c r="U227" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V227" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W227" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X227" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AZ227" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BA227" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC227" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BF227" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG227" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH227" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ227" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>2593515</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45072.59375</v>
+      </c>
+      <c r="F228" t="n">
+        <v>29</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Sturm Graz II</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Liefering</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>2</v>
+      </c>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
+      <c r="K228" t="n">
+        <v>3</v>
+      </c>
+      <c r="L228" t="n">
+        <v>4</v>
+      </c>
+      <c r="M228" t="n">
+        <v>2</v>
+      </c>
+      <c r="N228" t="n">
+        <v>6</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>['2', '26', '50', '88']</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>['41', '54']</t>
+        </is>
+      </c>
+      <c r="Q228" t="n">
+        <v>3</v>
+      </c>
+      <c r="R228" t="n">
+        <v>4</v>
+      </c>
+      <c r="S228" t="n">
+        <v>7</v>
+      </c>
+      <c r="T228" t="n">
+        <v>3</v>
+      </c>
+      <c r="U228" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V228" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W228" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X228" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG228" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>2593512</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45072.59375</v>
+      </c>
+      <c r="F229" t="n">
+        <v>29</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Floridsdorfer AC</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>St. Pölten</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>2</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>2</v>
+      </c>
+      <c r="L229" t="n">
+        <v>2</v>
+      </c>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="n">
+        <v>3</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>['20', '45+1']</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q229" t="n">
+        <v>5</v>
+      </c>
+      <c r="R229" t="n">
+        <v>5</v>
+      </c>
+      <c r="S229" t="n">
+        <v>10</v>
+      </c>
+      <c r="T229" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U229" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V229" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X229" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX229" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ229" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BA229" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC229" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF229" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG229" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH229" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI229" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ229" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>2593509</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>45072.59375</v>
+      </c>
+      <c r="F230" t="n">
+        <v>29</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Vorwärts Steyr</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>First Vienna</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>1</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N230" t="n">
+        <v>1</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q230" t="n">
+        <v>3</v>
+      </c>
+      <c r="R230" t="n">
+        <v>1</v>
+      </c>
+      <c r="S230" t="n">
+        <v>4</v>
+      </c>
+      <c r="T230" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U230" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V230" t="n">
+        <v>4</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X230" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX230" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY230" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ230" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BA230" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB230" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC230" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD230" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BE230" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BF230" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG230" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH230" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI230" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ230" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK230" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>2593510</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>45072.59375</v>
+      </c>
+      <c r="F231" t="n">
+        <v>29</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Lafnitz</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Kapfenberger SV</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>2</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="n">
+        <v>2</v>
+      </c>
+      <c r="L231" t="n">
+        <v>3</v>
+      </c>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="n">
+        <v>4</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>['5', '37', '53']</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="Q231" t="n">
+        <v>3</v>
+      </c>
+      <c r="R231" t="n">
+        <v>2</v>
+      </c>
+      <c r="S231" t="n">
+        <v>5</v>
+      </c>
+      <c r="T231" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U231" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V231" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W231" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X231" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP231" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ231" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT231" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AU231" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX231" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY231" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ231" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BA231" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB231" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC231" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD231" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE231" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF231" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG231" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH231" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI231" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ231" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK231" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="n">
+        <v>2593508</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>45072.59375</v>
+      </c>
+      <c r="F232" t="n">
+        <v>29</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Austria Wien II</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Admira</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L232" t="n">
+        <v>0</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N232" t="n">
+        <v>0</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q232" t="n">
+        <v>4</v>
+      </c>
+      <c r="R232" t="n">
+        <v>9</v>
+      </c>
+      <c r="S232" t="n">
+        <v>13</v>
+      </c>
+      <c r="T232" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U232" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V232" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W232" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X232" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ232" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR232" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS232" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT232" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AU232" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW232" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF232" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG232" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH232" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI232" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ232" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK232" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="n">
+        <v>2593511</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>45072.59375</v>
+      </c>
+      <c r="F233" t="n">
+        <v>29</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Horn</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Dornbirn</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M233" t="n">
+        <v>2</v>
+      </c>
+      <c r="N233" t="n">
+        <v>2</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>['48', '70']</t>
+        </is>
+      </c>
+      <c r="Q233" t="n">
+        <v>3</v>
+      </c>
+      <c r="R233" t="n">
+        <v>6</v>
+      </c>
+      <c r="S233" t="n">
+        <v>9</v>
+      </c>
+      <c r="T233" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U233" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V233" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W233" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X233" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN233" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP233" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AQ233" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR233" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS233" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT233" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU233" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW233" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX233" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY233" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ233" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA233" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB233" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC233" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD233" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE233" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BF233" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG233" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH233" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI233" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ233" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK233" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="362">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -736,6 +736,24 @@
     <t>['5', '37', '53']</t>
   </si>
   <si>
+    <t>['75', '90+3', '90+6']</t>
+  </si>
+  <si>
+    <t>['6', '9', '41', '54', '73']</t>
+  </si>
+  <si>
+    <t>['45+1', '81']</t>
+  </si>
+  <si>
+    <t>['48', '86']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
     <t>['29', '42']</t>
   </si>
   <si>
@@ -952,9 +970,6 @@
     <t>['27']</t>
   </si>
   <si>
-    <t>['88']</t>
-  </si>
-  <si>
     <t>['45', '81']</t>
   </si>
   <si>
@@ -1079,6 +1094,12 @@
   </si>
   <si>
     <t>['48', '70']</t>
+  </si>
+  <si>
+    <t>['5', '80', '88']</t>
+  </si>
+  <si>
+    <t>['38', '69']</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK233"/>
+  <dimension ref="A1:BK241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1771,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT2">
         <v>1.73</v>
@@ -1875,7 +1896,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1965,7 +1986,7 @@
         <v>1.6</v>
       </c>
       <c r="AT3">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2156,7 +2177,7 @@
         <v>1.6</v>
       </c>
       <c r="AT4">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2257,7 +2278,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -2535,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT6">
         <v>0.93</v>
@@ -2726,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT7">
         <v>1.33</v>
@@ -2920,7 +2941,7 @@
         <v>2.4</v>
       </c>
       <c r="AT8">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3212,7 +3233,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3403,7 +3424,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -3681,10 +3702,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT12">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3785,7 +3806,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3872,10 +3893,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT13">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3976,7 +3997,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -4063,10 +4084,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT14">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4167,7 +4188,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4448,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="AT16">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4549,7 +4570,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -4636,10 +4657,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT17">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4740,7 +4761,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4931,7 +4952,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -5018,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT19">
         <v>0.87</v>
@@ -5400,7 +5421,7 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT21">
         <v>2</v>
@@ -5504,7 +5525,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5594,7 +5615,7 @@
         <v>1.53</v>
       </c>
       <c r="AT22">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU22">
         <v>1.96</v>
@@ -6167,7 +6188,7 @@
         <v>1</v>
       </c>
       <c r="AT25">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU25">
         <v>2.6</v>
@@ -6268,7 +6289,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6355,10 +6376,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT26">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU26">
         <v>1.7</v>
@@ -6459,7 +6480,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6549,7 +6570,7 @@
         <v>1.53</v>
       </c>
       <c r="AT27">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU27">
         <v>1.24</v>
@@ -6650,7 +6671,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6737,10 +6758,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT28">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU28">
         <v>2.89</v>
@@ -6928,7 +6949,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT29">
         <v>1.4</v>
@@ -7032,7 +7053,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7122,7 +7143,7 @@
         <v>1</v>
       </c>
       <c r="AT30">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU30">
         <v>0.91</v>
@@ -7223,7 +7244,7 @@
         <v>106</v>
       </c>
       <c r="P31" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -7310,10 +7331,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT31">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU31">
         <v>2.17</v>
@@ -7414,7 +7435,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7605,7 +7626,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -7692,10 +7713,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT33">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU33">
         <v>1.72</v>
@@ -7796,7 +7817,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7886,7 +7907,7 @@
         <v>1.07</v>
       </c>
       <c r="AT34">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU34">
         <v>2.04</v>
@@ -8074,7 +8095,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT35">
         <v>0.73</v>
@@ -8265,7 +8286,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT36">
         <v>0.93</v>
@@ -8369,7 +8390,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q37">
         <v>10</v>
@@ -8459,7 +8480,7 @@
         <v>1.6</v>
       </c>
       <c r="AT37">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU37">
         <v>1.52</v>
@@ -8560,7 +8581,7 @@
         <v>105</v>
       </c>
       <c r="P38" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8647,7 +8668,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT38">
         <v>0.87</v>
@@ -8942,7 +8963,7 @@
         <v>87</v>
       </c>
       <c r="P40" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -9223,7 +9244,7 @@
         <v>1.6</v>
       </c>
       <c r="AT41">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU41">
         <v>1.51</v>
@@ -9324,7 +9345,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9411,10 +9432,10 @@
         <v>1.5</v>
       </c>
       <c r="AS42">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT42">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU42">
         <v>1.72</v>
@@ -9605,7 +9626,7 @@
         <v>1.07</v>
       </c>
       <c r="AT43">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU43">
         <v>2.14</v>
@@ -9706,7 +9727,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q44">
         <v>8</v>
@@ -9793,10 +9814,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT44">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU44">
         <v>1.3</v>
@@ -9897,7 +9918,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -10175,7 +10196,7 @@
         <v>2</v>
       </c>
       <c r="AS46">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT46">
         <v>2</v>
@@ -10470,7 +10491,7 @@
         <v>120</v>
       </c>
       <c r="P48" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10560,7 +10581,7 @@
         <v>2.4</v>
       </c>
       <c r="AT48">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU48">
         <v>1.91</v>
@@ -10661,7 +10682,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10748,10 +10769,10 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT49">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU49">
         <v>1.79</v>
@@ -11512,7 +11533,7 @@
         <v>1</v>
       </c>
       <c r="AS53">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT53">
         <v>1.73</v>
@@ -11616,7 +11637,7 @@
         <v>87</v>
       </c>
       <c r="P54" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11807,7 +11828,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q55">
         <v>13</v>
@@ -11897,7 +11918,7 @@
         <v>1</v>
       </c>
       <c r="AT55">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU55">
         <v>1.94</v>
@@ -11998,7 +12019,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12085,10 +12106,10 @@
         <v>1.67</v>
       </c>
       <c r="AS56">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT56">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU56">
         <v>2.16</v>
@@ -12189,7 +12210,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q57">
         <v>13</v>
@@ -12276,10 +12297,10 @@
         <v>0.67</v>
       </c>
       <c r="AS57">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT57">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU57">
         <v>1.55</v>
@@ -12571,7 +12592,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12658,10 +12679,10 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT59">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU59">
         <v>1.48</v>
@@ -12852,7 +12873,7 @@
         <v>1.07</v>
       </c>
       <c r="AT60">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU60">
         <v>1.96</v>
@@ -13040,10 +13061,10 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT61">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU61">
         <v>1.89</v>
@@ -13144,7 +13165,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13234,7 +13255,7 @@
         <v>1.53</v>
       </c>
       <c r="AT62">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU62">
         <v>1.64</v>
@@ -13335,7 +13356,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13422,7 +13443,7 @@
         <v>1.33</v>
       </c>
       <c r="AS63">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT63">
         <v>2</v>
@@ -13616,7 +13637,7 @@
         <v>2.4</v>
       </c>
       <c r="AT64">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU64">
         <v>1.72</v>
@@ -13804,7 +13825,7 @@
         <v>2.33</v>
       </c>
       <c r="AS65">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT65">
         <v>1.53</v>
@@ -13998,7 +14019,7 @@
         <v>1.53</v>
       </c>
       <c r="AT66">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU66">
         <v>1.56</v>
@@ -14099,7 +14120,7 @@
         <v>87</v>
       </c>
       <c r="P67" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -14186,7 +14207,7 @@
         <v>1.75</v>
       </c>
       <c r="AS67">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT67">
         <v>2</v>
@@ -14290,7 +14311,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q68">
         <v>12</v>
@@ -14481,7 +14502,7 @@
         <v>138</v>
       </c>
       <c r="P69" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14568,7 +14589,7 @@
         <v>0.5</v>
       </c>
       <c r="AS69">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT69">
         <v>0.87</v>
@@ -14759,10 +14780,10 @@
         <v>0.25</v>
       </c>
       <c r="AS70">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT70">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU70">
         <v>1.71</v>
@@ -14953,7 +14974,7 @@
         <v>1.27</v>
       </c>
       <c r="AT71">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU71">
         <v>1.52</v>
@@ -15054,7 +15075,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15141,7 +15162,7 @@
         <v>1</v>
       </c>
       <c r="AS72">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT72">
         <v>1.33</v>
@@ -15335,7 +15356,7 @@
         <v>1</v>
       </c>
       <c r="AT73">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU73">
         <v>2.03</v>
@@ -15523,7 +15544,7 @@
         <v>0.25</v>
       </c>
       <c r="AS74">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT74">
         <v>0.93</v>
@@ -15717,7 +15738,7 @@
         <v>1</v>
       </c>
       <c r="AT75">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU75">
         <v>1.45</v>
@@ -15818,7 +15839,7 @@
         <v>127</v>
       </c>
       <c r="P76" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15908,7 +15929,7 @@
         <v>1.6</v>
       </c>
       <c r="AT76">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU76">
         <v>1.34</v>
@@ -16009,7 +16030,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16096,7 +16117,7 @@
         <v>1.75</v>
       </c>
       <c r="AS77">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT77">
         <v>1.53</v>
@@ -16200,7 +16221,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -16290,7 +16311,7 @@
         <v>2.4</v>
       </c>
       <c r="AT78">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU78">
         <v>1.72</v>
@@ -16391,7 +16412,7 @@
         <v>87</v>
       </c>
       <c r="P79" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q79">
         <v>1</v>
@@ -16481,7 +16502,7 @@
         <v>1.27</v>
       </c>
       <c r="AT79">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU79">
         <v>1.69</v>
@@ -16669,7 +16690,7 @@
         <v>0.25</v>
       </c>
       <c r="AS80">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT80">
         <v>0.73</v>
@@ -17054,7 +17075,7 @@
         <v>1.07</v>
       </c>
       <c r="AT82">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU82">
         <v>1.93</v>
@@ -17155,7 +17176,7 @@
         <v>87</v>
       </c>
       <c r="P83" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -17242,10 +17263,10 @@
         <v>1.2</v>
       </c>
       <c r="AS83">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT83">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU83">
         <v>1.61</v>
@@ -17537,7 +17558,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -17624,10 +17645,10 @@
         <v>0.6</v>
       </c>
       <c r="AS85">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT85">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU85">
         <v>1.39</v>
@@ -17728,7 +17749,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17919,7 +17940,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -18006,10 +18027,10 @@
         <v>1.8</v>
       </c>
       <c r="AS87">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT87">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU87">
         <v>1.87</v>
@@ -18110,7 +18131,7 @@
         <v>87</v>
       </c>
       <c r="P88" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -18492,7 +18513,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -18770,10 +18791,10 @@
         <v>1</v>
       </c>
       <c r="AS91">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT91">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU91">
         <v>1.91</v>
@@ -18964,7 +18985,7 @@
         <v>1.27</v>
       </c>
       <c r="AT92">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU92">
         <v>1.65</v>
@@ -19065,7 +19086,7 @@
         <v>87</v>
       </c>
       <c r="P93" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -19343,10 +19364,10 @@
         <v>0.4</v>
       </c>
       <c r="AS94">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT94">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU94">
         <v>1.92</v>
@@ -19534,7 +19555,7 @@
         <v>1.4</v>
       </c>
       <c r="AS95">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT95">
         <v>1.33</v>
@@ -19638,7 +19659,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19725,10 +19746,10 @@
         <v>0.6</v>
       </c>
       <c r="AS96">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT96">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU96">
         <v>1.47</v>
@@ -20020,7 +20041,7 @@
         <v>154</v>
       </c>
       <c r="P98" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -20107,10 +20128,10 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT98">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU98">
         <v>1.91</v>
@@ -20211,7 +20232,7 @@
         <v>155</v>
       </c>
       <c r="P99" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20492,7 +20513,7 @@
         <v>1.6</v>
       </c>
       <c r="AT100">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU100">
         <v>1.33</v>
@@ -20683,7 +20704,7 @@
         <v>1</v>
       </c>
       <c r="AT101">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU101">
         <v>1.51</v>
@@ -20784,7 +20805,7 @@
         <v>87</v>
       </c>
       <c r="P102" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20975,7 +20996,7 @@
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -21062,7 +21083,7 @@
         <v>1</v>
       </c>
       <c r="AS103">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT103">
         <v>1.73</v>
@@ -21444,10 +21465,10 @@
         <v>2</v>
       </c>
       <c r="AS105">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT105">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU105">
         <v>1.46</v>
@@ -21548,7 +21569,7 @@
         <v>159</v>
       </c>
       <c r="P106" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21635,10 +21656,10 @@
         <v>1</v>
       </c>
       <c r="AS106">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT106">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU106">
         <v>1.56</v>
@@ -21826,10 +21847,10 @@
         <v>1</v>
       </c>
       <c r="AS107">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT107">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU107">
         <v>1.77</v>
@@ -22017,10 +22038,10 @@
         <v>0.33</v>
       </c>
       <c r="AS108">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT108">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU108">
         <v>1.43</v>
@@ -22208,7 +22229,7 @@
         <v>0.67</v>
       </c>
       <c r="AS109">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT109">
         <v>0.73</v>
@@ -22312,7 +22333,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22503,7 +22524,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -22694,7 +22715,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22784,7 +22805,7 @@
         <v>1.53</v>
       </c>
       <c r="AT112">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU112">
         <v>1.39</v>
@@ -22885,7 +22906,7 @@
         <v>87</v>
       </c>
       <c r="P113" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -23076,7 +23097,7 @@
         <v>165</v>
       </c>
       <c r="P114" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -23163,10 +23184,10 @@
         <v>1.29</v>
       </c>
       <c r="AS114">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT114">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU114">
         <v>1.73</v>
@@ -23354,10 +23375,10 @@
         <v>0.86</v>
       </c>
       <c r="AS115">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT115">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU115">
         <v>1.49</v>
@@ -23548,7 +23569,7 @@
         <v>1.07</v>
       </c>
       <c r="AT116">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU116">
         <v>1.81</v>
@@ -23649,7 +23670,7 @@
         <v>87</v>
       </c>
       <c r="P117" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23736,7 +23757,7 @@
         <v>1.29</v>
       </c>
       <c r="AS117">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT117">
         <v>1.73</v>
@@ -23840,7 +23861,7 @@
         <v>167</v>
       </c>
       <c r="P118" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q118">
         <v>8</v>
@@ -23930,7 +23951,7 @@
         <v>1.6</v>
       </c>
       <c r="AT118">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU118">
         <v>1.33</v>
@@ -24222,7 +24243,7 @@
         <v>169</v>
       </c>
       <c r="P120" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24309,7 +24330,7 @@
         <v>0.57</v>
       </c>
       <c r="AS120">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT120">
         <v>0.73</v>
@@ -24413,7 +24434,7 @@
         <v>170</v>
       </c>
       <c r="P121" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24691,7 +24712,7 @@
         <v>0.71</v>
       </c>
       <c r="AS122">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT122">
         <v>0.87</v>
@@ -24795,7 +24816,7 @@
         <v>172</v>
       </c>
       <c r="P123" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -24885,7 +24906,7 @@
         <v>1.53</v>
       </c>
       <c r="AT123">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU123">
         <v>1.37</v>
@@ -24986,7 +25007,7 @@
         <v>87</v>
       </c>
       <c r="P124" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -25076,7 +25097,7 @@
         <v>1</v>
       </c>
       <c r="AT124">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU124">
         <v>1.49</v>
@@ -25177,7 +25198,7 @@
         <v>173</v>
       </c>
       <c r="P125" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -25267,7 +25288,7 @@
         <v>1.53</v>
       </c>
       <c r="AT125">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU125">
         <v>1.5</v>
@@ -25368,7 +25389,7 @@
         <v>87</v>
       </c>
       <c r="P126" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -25455,7 +25476,7 @@
         <v>2.29</v>
       </c>
       <c r="AS126">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT126">
         <v>2</v>
@@ -25646,7 +25667,7 @@
         <v>1.57</v>
       </c>
       <c r="AS127">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT127">
         <v>1.4</v>
@@ -26031,7 +26052,7 @@
         <v>1.27</v>
       </c>
       <c r="AT129">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU129">
         <v>1.75</v>
@@ -26132,7 +26153,7 @@
         <v>87</v>
       </c>
       <c r="P130" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q130">
         <v>14</v>
@@ -26219,7 +26240,7 @@
         <v>0.5</v>
       </c>
       <c r="AS130">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT130">
         <v>0.73</v>
@@ -26323,7 +26344,7 @@
         <v>177</v>
       </c>
       <c r="P131" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26410,10 +26431,10 @@
         <v>1.13</v>
       </c>
       <c r="AS131">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT131">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU131">
         <v>1.44</v>
@@ -26604,7 +26625,7 @@
         <v>1.27</v>
       </c>
       <c r="AT132">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU132">
         <v>1.74</v>
@@ -26705,7 +26726,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -26795,7 +26816,7 @@
         <v>1.6</v>
       </c>
       <c r="AT133">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU133">
         <v>1.61</v>
@@ -26896,7 +26917,7 @@
         <v>87</v>
       </c>
       <c r="P134" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -27087,7 +27108,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27174,10 +27195,10 @@
         <v>0.75</v>
       </c>
       <c r="AS135">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT135">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU135">
         <v>1.27</v>
@@ -27278,7 +27299,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -27365,7 +27386,7 @@
         <v>1.25</v>
       </c>
       <c r="AS136">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT136">
         <v>1.33</v>
@@ -27469,7 +27490,7 @@
         <v>87</v>
       </c>
       <c r="P137" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -27660,7 +27681,7 @@
         <v>87</v>
       </c>
       <c r="P138" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -27941,7 +27962,7 @@
         <v>1.53</v>
       </c>
       <c r="AT139">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU139">
         <v>1.55</v>
@@ -28042,7 +28063,7 @@
         <v>87</v>
       </c>
       <c r="P140" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -28132,7 +28153,7 @@
         <v>1.53</v>
       </c>
       <c r="AT140">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU140">
         <v>1.49</v>
@@ -28233,7 +28254,7 @@
         <v>87</v>
       </c>
       <c r="P141" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -28320,10 +28341,10 @@
         <v>1.75</v>
       </c>
       <c r="AS141">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT141">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU141">
         <v>1.73</v>
@@ -28511,7 +28532,7 @@
         <v>0.63</v>
       </c>
       <c r="AS142">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT142">
         <v>0.93</v>
@@ -28615,7 +28636,7 @@
         <v>184</v>
       </c>
       <c r="P143" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28705,7 +28726,7 @@
         <v>1</v>
       </c>
       <c r="AT143">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU143">
         <v>1.56</v>
@@ -29084,7 +29105,7 @@
         <v>1.63</v>
       </c>
       <c r="AS145">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT145">
         <v>1.53</v>
@@ -29466,10 +29487,10 @@
         <v>1.56</v>
       </c>
       <c r="AS147">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT147">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU147">
         <v>1.51</v>
@@ -29570,7 +29591,7 @@
         <v>139</v>
       </c>
       <c r="P148" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q148">
         <v>7</v>
@@ -29761,7 +29782,7 @@
         <v>188</v>
       </c>
       <c r="P149" t="s">
-        <v>312</v>
+        <v>244</v>
       </c>
       <c r="Q149">
         <v>2</v>
@@ -29848,10 +29869,10 @@
         <v>1.89</v>
       </c>
       <c r="AS149">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT149">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU149">
         <v>1.91</v>
@@ -29952,7 +29973,7 @@
         <v>87</v>
       </c>
       <c r="P150" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -30143,7 +30164,7 @@
         <v>87</v>
       </c>
       <c r="P151" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30230,10 +30251,10 @@
         <v>0.89</v>
       </c>
       <c r="AS151">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT151">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU151">
         <v>1.49</v>
@@ -30334,7 +30355,7 @@
         <v>189</v>
       </c>
       <c r="P152" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q152">
         <v>4</v>
@@ -30421,10 +30442,10 @@
         <v>1.11</v>
       </c>
       <c r="AS152">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT152">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU152">
         <v>1.42</v>
@@ -30525,7 +30546,7 @@
         <v>87</v>
       </c>
       <c r="P153" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q153">
         <v>9</v>
@@ -30716,7 +30737,7 @@
         <v>190</v>
       </c>
       <c r="P154" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q154">
         <v>1</v>
@@ -30806,7 +30827,7 @@
         <v>1.6</v>
       </c>
       <c r="AT154">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU154">
         <v>1.63</v>
@@ -30994,10 +31015,10 @@
         <v>1.44</v>
       </c>
       <c r="AS155">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT155">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU155">
         <v>1.34</v>
@@ -31185,7 +31206,7 @@
         <v>0.78</v>
       </c>
       <c r="AS156">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT156">
         <v>0.73</v>
@@ -31480,7 +31501,7 @@
         <v>193</v>
       </c>
       <c r="P158" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q158">
         <v>1</v>
@@ -31570,7 +31591,7 @@
         <v>1</v>
       </c>
       <c r="AT158">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU158">
         <v>1.61</v>
@@ -31761,7 +31782,7 @@
         <v>2.4</v>
       </c>
       <c r="AT159">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU159">
         <v>1.67</v>
@@ -31862,7 +31883,7 @@
         <v>195</v>
       </c>
       <c r="P160" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q160">
         <v>14</v>
@@ -32053,7 +32074,7 @@
         <v>196</v>
       </c>
       <c r="P161" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q161">
         <v>8</v>
@@ -32140,7 +32161,7 @@
         <v>1.44</v>
       </c>
       <c r="AS161">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT161">
         <v>1.53</v>
@@ -32244,7 +32265,7 @@
         <v>197</v>
       </c>
       <c r="P162" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -32334,7 +32355,7 @@
         <v>1</v>
       </c>
       <c r="AT162">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU162">
         <v>1.89</v>
@@ -32525,7 +32546,7 @@
         <v>1.6</v>
       </c>
       <c r="AT163">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU163">
         <v>1.38</v>
@@ -32713,10 +32734,10 @@
         <v>1</v>
       </c>
       <c r="AS164">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT164">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU164">
         <v>1.49</v>
@@ -33008,7 +33029,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q166">
         <v>2</v>
@@ -33199,7 +33220,7 @@
         <v>200</v>
       </c>
       <c r="P167" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -33286,7 +33307,7 @@
         <v>1.4</v>
       </c>
       <c r="AS167">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT167">
         <v>1.33</v>
@@ -33390,7 +33411,7 @@
         <v>201</v>
       </c>
       <c r="P168" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q168">
         <v>7</v>
@@ -33477,7 +33498,7 @@
         <v>0.6</v>
       </c>
       <c r="AS168">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT168">
         <v>0.93</v>
@@ -33668,10 +33689,10 @@
         <v>1.7</v>
       </c>
       <c r="AS169">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT169">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU169">
         <v>1.41</v>
@@ -33772,7 +33793,7 @@
         <v>202</v>
       </c>
       <c r="P170" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q170">
         <v>12</v>
@@ -33859,7 +33880,7 @@
         <v>1.5</v>
       </c>
       <c r="AS170">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT170">
         <v>1.4</v>
@@ -33963,7 +33984,7 @@
         <v>203</v>
       </c>
       <c r="P171" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q171">
         <v>5</v>
@@ -34053,7 +34074,7 @@
         <v>1.6</v>
       </c>
       <c r="AT171">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU171">
         <v>1.63</v>
@@ -34154,7 +34175,7 @@
         <v>112</v>
       </c>
       <c r="P172" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q172">
         <v>12</v>
@@ -34244,7 +34265,7 @@
         <v>1.53</v>
       </c>
       <c r="AT172">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU172">
         <v>1.46</v>
@@ -34345,7 +34366,7 @@
         <v>185</v>
       </c>
       <c r="P173" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q173">
         <v>2</v>
@@ -34432,7 +34453,7 @@
         <v>1.3</v>
       </c>
       <c r="AS173">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT173">
         <v>1.53</v>
@@ -34536,7 +34557,7 @@
         <v>87</v>
       </c>
       <c r="P174" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q174">
         <v>7</v>
@@ -34626,7 +34647,7 @@
         <v>1.27</v>
       </c>
       <c r="AT174">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU174">
         <v>1.69</v>
@@ -34727,7 +34748,7 @@
         <v>204</v>
       </c>
       <c r="P175" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q175">
         <v>11</v>
@@ -34814,7 +34835,7 @@
         <v>0.6</v>
       </c>
       <c r="AS175">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT175">
         <v>0.87</v>
@@ -34918,7 +34939,7 @@
         <v>205</v>
       </c>
       <c r="P176" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q176">
         <v>3</v>
@@ -35008,7 +35029,7 @@
         <v>2.4</v>
       </c>
       <c r="AT176">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU176">
         <v>1.77</v>
@@ -35109,7 +35130,7 @@
         <v>87</v>
       </c>
       <c r="P177" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q177">
         <v>7</v>
@@ -35390,7 +35411,7 @@
         <v>1.53</v>
       </c>
       <c r="AT178">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU178">
         <v>1.42</v>
@@ -35491,7 +35512,7 @@
         <v>207</v>
       </c>
       <c r="P179" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -35578,7 +35599,7 @@
         <v>1.45</v>
       </c>
       <c r="AS179">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT179">
         <v>1.73</v>
@@ -35873,7 +35894,7 @@
         <v>208</v>
       </c>
       <c r="P181" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q181">
         <v>11</v>
@@ -36064,7 +36085,7 @@
         <v>87</v>
       </c>
       <c r="P182" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q182">
         <v>7</v>
@@ -36151,10 +36172,10 @@
         <v>1.27</v>
       </c>
       <c r="AS182">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT182">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU182">
         <v>1.41</v>
@@ -36255,7 +36276,7 @@
         <v>209</v>
       </c>
       <c r="P183" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q183">
         <v>10</v>
@@ -36345,7 +36366,7 @@
         <v>1</v>
       </c>
       <c r="AT183">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU183">
         <v>1.87</v>
@@ -36446,7 +36467,7 @@
         <v>87</v>
       </c>
       <c r="P184" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q184">
         <v>6</v>
@@ -36533,7 +36554,7 @@
         <v>0.82</v>
       </c>
       <c r="AS184">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT184">
         <v>0.93</v>
@@ -36637,7 +36658,7 @@
         <v>210</v>
       </c>
       <c r="P185" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q185">
         <v>4</v>
@@ -36915,10 +36936,10 @@
         <v>1.45</v>
       </c>
       <c r="AS186">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT186">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU186">
         <v>1.47</v>
@@ -37019,7 +37040,7 @@
         <v>212</v>
       </c>
       <c r="P187" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q187">
         <v>5</v>
@@ -37109,7 +37130,7 @@
         <v>1.6</v>
       </c>
       <c r="AT187">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU187">
         <v>1.64</v>
@@ -37297,7 +37318,7 @@
         <v>1.36</v>
       </c>
       <c r="AS188">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT188">
         <v>1.4</v>
@@ -37491,7 +37512,7 @@
         <v>1.27</v>
       </c>
       <c r="AT189">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU189">
         <v>1.7</v>
@@ -37679,7 +37700,7 @@
         <v>0.55</v>
       </c>
       <c r="AS190">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT190">
         <v>0.87</v>
@@ -37870,7 +37891,7 @@
         <v>1.42</v>
       </c>
       <c r="AS191">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT191">
         <v>1.33</v>
@@ -37974,7 +37995,7 @@
         <v>217</v>
       </c>
       <c r="P192" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q192">
         <v>6</v>
@@ -38064,7 +38085,7 @@
         <v>1.53</v>
       </c>
       <c r="AT192">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU192">
         <v>1.53</v>
@@ -38165,7 +38186,7 @@
         <v>218</v>
       </c>
       <c r="P193" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q193">
         <v>8</v>
@@ -38446,7 +38467,7 @@
         <v>1.07</v>
       </c>
       <c r="AT194">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU194">
         <v>1.64</v>
@@ -38634,10 +38655,10 @@
         <v>1.58</v>
       </c>
       <c r="AS195">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT195">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU195">
         <v>1.4</v>
@@ -38738,7 +38759,7 @@
         <v>219</v>
       </c>
       <c r="P196" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q196">
         <v>3</v>
@@ -38828,7 +38849,7 @@
         <v>1.53</v>
       </c>
       <c r="AT196">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU196">
         <v>1.5</v>
@@ -38929,7 +38950,7 @@
         <v>220</v>
       </c>
       <c r="P197" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q197">
         <v>7</v>
@@ -39207,7 +39228,7 @@
         <v>1.42</v>
       </c>
       <c r="AS198">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT198">
         <v>1.53</v>
@@ -39311,7 +39332,7 @@
         <v>87</v>
       </c>
       <c r="P199" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -39502,7 +39523,7 @@
         <v>87</v>
       </c>
       <c r="P200" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q200">
         <v>2</v>
@@ -39974,7 +39995,7 @@
         <v>1.07</v>
       </c>
       <c r="AT202">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU202">
         <v>1.64</v>
@@ -40075,7 +40096,7 @@
         <v>87</v>
       </c>
       <c r="P203" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -40162,7 +40183,7 @@
         <v>1.25</v>
       </c>
       <c r="AS203">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT203">
         <v>1.4</v>
@@ -40353,10 +40374,10 @@
         <v>1.42</v>
       </c>
       <c r="AS204">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT204">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU204">
         <v>2.19</v>
@@ -40547,7 +40568,7 @@
         <v>1.6</v>
       </c>
       <c r="AT205">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU205">
         <v>1.64</v>
@@ -40648,7 +40669,7 @@
         <v>87</v>
       </c>
       <c r="P206" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q206">
         <v>7</v>
@@ -40735,10 +40756,10 @@
         <v>1.42</v>
       </c>
       <c r="AS206">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT206">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU206">
         <v>1.93</v>
@@ -40926,7 +40947,7 @@
         <v>1.31</v>
       </c>
       <c r="AS207">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT207">
         <v>1.33</v>
@@ -41117,10 +41138,10 @@
         <v>0.58</v>
       </c>
       <c r="AS208">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT208">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU208">
         <v>1.67</v>
@@ -41221,7 +41242,7 @@
         <v>226</v>
       </c>
       <c r="P209" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q209">
         <v>7</v>
@@ -41499,10 +41520,10 @@
         <v>1.46</v>
       </c>
       <c r="AS210">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT210">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU210">
         <v>1.37</v>
@@ -41884,7 +41905,7 @@
         <v>1.6</v>
       </c>
       <c r="AT212">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU212">
         <v>1.39</v>
@@ -41985,7 +42006,7 @@
         <v>229</v>
       </c>
       <c r="P213" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q213">
         <v>6</v>
@@ -42176,7 +42197,7 @@
         <v>87</v>
       </c>
       <c r="P214" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q214">
         <v>2</v>
@@ -42263,7 +42284,7 @@
         <v>1.54</v>
       </c>
       <c r="AS214">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT214">
         <v>1.73</v>
@@ -42558,7 +42579,7 @@
         <v>128</v>
       </c>
       <c r="P216" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q216">
         <v>6</v>
@@ -42749,7 +42770,7 @@
         <v>164</v>
       </c>
       <c r="P217" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q217">
         <v>2</v>
@@ -42839,7 +42860,7 @@
         <v>1.53</v>
       </c>
       <c r="AT217">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU217">
         <v>1.49</v>
@@ -42940,7 +42961,7 @@
         <v>87</v>
       </c>
       <c r="P218" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q218">
         <v>8</v>
@@ -43027,7 +43048,7 @@
         <v>1.38</v>
       </c>
       <c r="AS218">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT218">
         <v>1.4</v>
@@ -43131,7 +43152,7 @@
         <v>87</v>
       </c>
       <c r="P219" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q219">
         <v>14</v>
@@ -43218,10 +43239,10 @@
         <v>1.54</v>
       </c>
       <c r="AS219">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT219">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU219">
         <v>2.17</v>
@@ -43412,7 +43433,7 @@
         <v>1</v>
       </c>
       <c r="AT220">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU220">
         <v>1.58</v>
@@ -43513,7 +43534,7 @@
         <v>230</v>
       </c>
       <c r="P221" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q221">
         <v>4</v>
@@ -43600,10 +43621,10 @@
         <v>1.15</v>
       </c>
       <c r="AS221">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT221">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU221">
         <v>1.92</v>
@@ -43704,7 +43725,7 @@
         <v>231</v>
       </c>
       <c r="P222" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q222">
         <v>8</v>
@@ -43791,10 +43812,10 @@
         <v>0.92</v>
       </c>
       <c r="AS222">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT222">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU222">
         <v>1.52</v>
@@ -43985,7 +44006,7 @@
         <v>2.4</v>
       </c>
       <c r="AT223">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU223">
         <v>1.62</v>
@@ -44173,7 +44194,7 @@
         <v>2.31</v>
       </c>
       <c r="AS224">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT224">
         <v>2</v>
@@ -44367,7 +44388,7 @@
         <v>1</v>
       </c>
       <c r="AT225">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU225">
         <v>1.96</v>
@@ -44850,7 +44871,7 @@
         <v>236</v>
       </c>
       <c r="P228" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="Q228">
         <v>3</v>
@@ -45041,7 +45062,7 @@
         <v>237</v>
       </c>
       <c r="P229" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q229">
         <v>5</v>
@@ -45423,7 +45444,7 @@
         <v>239</v>
       </c>
       <c r="P231" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q231">
         <v>3</v>
@@ -45805,7 +45826,7 @@
         <v>87</v>
       </c>
       <c r="P233" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q233">
         <v>3</v>
@@ -45947,6 +45968,1534 @@
       </c>
       <c r="BK233">
         <v>17</v>
+      </c>
+    </row>
+    <row r="234" spans="1:63">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>2593522</v>
+      </c>
+      <c r="C234" t="s">
+        <v>63</v>
+      </c>
+      <c r="D234" t="s">
+        <v>64</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45081.39583333334</v>
+      </c>
+      <c r="F234">
+        <v>30</v>
+      </c>
+      <c r="G234" t="s">
+        <v>77</v>
+      </c>
+      <c r="H234" t="s">
+        <v>66</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <v>3</v>
+      </c>
+      <c r="M234">
+        <v>0</v>
+      </c>
+      <c r="N234">
+        <v>3</v>
+      </c>
+      <c r="O234" t="s">
+        <v>240</v>
+      </c>
+      <c r="P234" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q234">
+        <v>0</v>
+      </c>
+      <c r="R234">
+        <v>3</v>
+      </c>
+      <c r="S234">
+        <v>3</v>
+      </c>
+      <c r="T234">
+        <v>2.5</v>
+      </c>
+      <c r="U234">
+        <v>2.2</v>
+      </c>
+      <c r="V234">
+        <v>4</v>
+      </c>
+      <c r="W234">
+        <v>1.33</v>
+      </c>
+      <c r="X234">
+        <v>3.25</v>
+      </c>
+      <c r="Y234">
+        <v>2.5</v>
+      </c>
+      <c r="Z234">
+        <v>1.5</v>
+      </c>
+      <c r="AA234">
+        <v>5.5</v>
+      </c>
+      <c r="AB234">
+        <v>1.13</v>
+      </c>
+      <c r="AC234">
+        <v>1.95</v>
+      </c>
+      <c r="AD234">
+        <v>3.75</v>
+      </c>
+      <c r="AE234">
+        <v>3.8</v>
+      </c>
+      <c r="AF234">
+        <v>1.04</v>
+      </c>
+      <c r="AG234">
+        <v>10</v>
+      </c>
+      <c r="AH234">
+        <v>1.22</v>
+      </c>
+      <c r="AI234">
+        <v>4</v>
+      </c>
+      <c r="AJ234">
+        <v>1.8</v>
+      </c>
+      <c r="AK234">
+        <v>2</v>
+      </c>
+      <c r="AL234">
+        <v>1.73</v>
+      </c>
+      <c r="AM234">
+        <v>2</v>
+      </c>
+      <c r="AN234">
+        <v>1.17</v>
+      </c>
+      <c r="AO234">
+        <v>1.25</v>
+      </c>
+      <c r="AP234">
+        <v>1.95</v>
+      </c>
+      <c r="AQ234">
+        <v>1.43</v>
+      </c>
+      <c r="AR234">
+        <v>0.57</v>
+      </c>
+      <c r="AS234">
+        <v>1.53</v>
+      </c>
+      <c r="AT234">
+        <v>0.53</v>
+      </c>
+      <c r="AU234">
+        <v>1.39</v>
+      </c>
+      <c r="AV234">
+        <v>1.34</v>
+      </c>
+      <c r="AW234">
+        <v>2.73</v>
+      </c>
+      <c r="AX234">
+        <v>1.62</v>
+      </c>
+      <c r="AY234">
+        <v>6</v>
+      </c>
+      <c r="AZ234">
+        <v>2.7</v>
+      </c>
+      <c r="BA234">
+        <v>1.25</v>
+      </c>
+      <c r="BB234">
+        <v>1.39</v>
+      </c>
+      <c r="BC234">
+        <v>1.76</v>
+      </c>
+      <c r="BD234">
+        <v>2.18</v>
+      </c>
+      <c r="BE234">
+        <v>2.8</v>
+      </c>
+      <c r="BF234">
+        <v>6</v>
+      </c>
+      <c r="BG234">
+        <v>3</v>
+      </c>
+      <c r="BH234">
+        <v>2</v>
+      </c>
+      <c r="BI234">
+        <v>3</v>
+      </c>
+      <c r="BJ234">
+        <v>8</v>
+      </c>
+      <c r="BK234">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:63">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>2593516</v>
+      </c>
+      <c r="C235" t="s">
+        <v>63</v>
+      </c>
+      <c r="D235" t="s">
+        <v>64</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45081.39583333334</v>
+      </c>
+      <c r="F235">
+        <v>30</v>
+      </c>
+      <c r="G235" t="s">
+        <v>80</v>
+      </c>
+      <c r="H235" t="s">
+        <v>68</v>
+      </c>
+      <c r="I235">
+        <v>3</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235">
+        <v>3</v>
+      </c>
+      <c r="L235">
+        <v>5</v>
+      </c>
+      <c r="M235">
+        <v>0</v>
+      </c>
+      <c r="N235">
+        <v>5</v>
+      </c>
+      <c r="O235" t="s">
+        <v>241</v>
+      </c>
+      <c r="P235" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q235">
+        <v>5</v>
+      </c>
+      <c r="R235">
+        <v>8</v>
+      </c>
+      <c r="S235">
+        <v>13</v>
+      </c>
+      <c r="T235">
+        <v>2</v>
+      </c>
+      <c r="U235">
+        <v>2.75</v>
+      </c>
+      <c r="V235">
+        <v>4</v>
+      </c>
+      <c r="W235">
+        <v>1.2</v>
+      </c>
+      <c r="X235">
+        <v>4.33</v>
+      </c>
+      <c r="Y235">
+        <v>2</v>
+      </c>
+      <c r="Z235">
+        <v>1.73</v>
+      </c>
+      <c r="AA235">
+        <v>4</v>
+      </c>
+      <c r="AB235">
+        <v>1.22</v>
+      </c>
+      <c r="AC235">
+        <v>1.6</v>
+      </c>
+      <c r="AD235">
+        <v>4.75</v>
+      </c>
+      <c r="AE235">
+        <v>4.75</v>
+      </c>
+      <c r="AF235">
+        <v>0</v>
+      </c>
+      <c r="AG235">
+        <v>0</v>
+      </c>
+      <c r="AH235">
+        <v>1.05</v>
+      </c>
+      <c r="AI235">
+        <v>7.75</v>
+      </c>
+      <c r="AJ235">
+        <v>1.29</v>
+      </c>
+      <c r="AK235">
+        <v>3.6</v>
+      </c>
+      <c r="AL235">
+        <v>1.33</v>
+      </c>
+      <c r="AM235">
+        <v>3.25</v>
+      </c>
+      <c r="AN235">
+        <v>1.2</v>
+      </c>
+      <c r="AO235">
+        <v>1.17</v>
+      </c>
+      <c r="AP235">
+        <v>2.35</v>
+      </c>
+      <c r="AQ235">
+        <v>1.64</v>
+      </c>
+      <c r="AR235">
+        <v>0.93</v>
+      </c>
+      <c r="AS235">
+        <v>1.73</v>
+      </c>
+      <c r="AT235">
+        <v>0.87</v>
+      </c>
+      <c r="AU235">
+        <v>1.92</v>
+      </c>
+      <c r="AV235">
+        <v>1.45</v>
+      </c>
+      <c r="AW235">
+        <v>3.37</v>
+      </c>
+      <c r="AX235">
+        <v>1.37</v>
+      </c>
+      <c r="AY235">
+        <v>7.25</v>
+      </c>
+      <c r="AZ235">
+        <v>3.65</v>
+      </c>
+      <c r="BA235">
+        <v>0</v>
+      </c>
+      <c r="BB235">
+        <v>0</v>
+      </c>
+      <c r="BC235">
+        <v>1.52</v>
+      </c>
+      <c r="BD235">
+        <v>1.83</v>
+      </c>
+      <c r="BE235">
+        <v>2.25</v>
+      </c>
+      <c r="BF235">
+        <v>10</v>
+      </c>
+      <c r="BG235">
+        <v>4</v>
+      </c>
+      <c r="BH235">
+        <v>6</v>
+      </c>
+      <c r="BI235">
+        <v>6</v>
+      </c>
+      <c r="BJ235">
+        <v>16</v>
+      </c>
+      <c r="BK235">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:63">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>2593517</v>
+      </c>
+      <c r="C236" t="s">
+        <v>63</v>
+      </c>
+      <c r="D236" t="s">
+        <v>64</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45081.39583333334</v>
+      </c>
+      <c r="F236">
+        <v>30</v>
+      </c>
+      <c r="G236" t="s">
+        <v>69</v>
+      </c>
+      <c r="H236" t="s">
+        <v>67</v>
+      </c>
+      <c r="I236">
+        <v>1</v>
+      </c>
+      <c r="J236">
+        <v>1</v>
+      </c>
+      <c r="K236">
+        <v>2</v>
+      </c>
+      <c r="L236">
+        <v>2</v>
+      </c>
+      <c r="M236">
+        <v>2</v>
+      </c>
+      <c r="N236">
+        <v>4</v>
+      </c>
+      <c r="O236" t="s">
+        <v>242</v>
+      </c>
+      <c r="P236" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q236">
+        <v>5</v>
+      </c>
+      <c r="R236">
+        <v>2</v>
+      </c>
+      <c r="S236">
+        <v>7</v>
+      </c>
+      <c r="T236">
+        <v>2</v>
+      </c>
+      <c r="U236">
+        <v>2.63</v>
+      </c>
+      <c r="V236">
+        <v>4.33</v>
+      </c>
+      <c r="W236">
+        <v>1.29</v>
+      </c>
+      <c r="X236">
+        <v>3.5</v>
+      </c>
+      <c r="Y236">
+        <v>2.25</v>
+      </c>
+      <c r="Z236">
+        <v>1.57</v>
+      </c>
+      <c r="AA236">
+        <v>5</v>
+      </c>
+      <c r="AB236">
+        <v>1.14</v>
+      </c>
+      <c r="AC236">
+        <v>1.6</v>
+      </c>
+      <c r="AD236">
+        <v>4.5</v>
+      </c>
+      <c r="AE236">
+        <v>4.75</v>
+      </c>
+      <c r="AF236">
+        <v>1.03</v>
+      </c>
+      <c r="AG236">
+        <v>11</v>
+      </c>
+      <c r="AH236">
+        <v>1.17</v>
+      </c>
+      <c r="AI236">
+        <v>4.5</v>
+      </c>
+      <c r="AJ236">
+        <v>1.36</v>
+      </c>
+      <c r="AK236">
+        <v>3.1</v>
+      </c>
+      <c r="AL236">
+        <v>1.44</v>
+      </c>
+      <c r="AM236">
+        <v>2.63</v>
+      </c>
+      <c r="AN236">
+        <v>1.37</v>
+      </c>
+      <c r="AO236">
+        <v>1.27</v>
+      </c>
+      <c r="AP236">
+        <v>1.55</v>
+      </c>
+      <c r="AQ236">
+        <v>1.5</v>
+      </c>
+      <c r="AR236">
+        <v>1.64</v>
+      </c>
+      <c r="AS236">
+        <v>1.47</v>
+      </c>
+      <c r="AT236">
+        <v>1.6</v>
+      </c>
+      <c r="AU236">
+        <v>1.52</v>
+      </c>
+      <c r="AV236">
+        <v>1.48</v>
+      </c>
+      <c r="AW236">
+        <v>3</v>
+      </c>
+      <c r="AX236">
+        <v>1.76</v>
+      </c>
+      <c r="AY236">
+        <v>6</v>
+      </c>
+      <c r="AZ236">
+        <v>2.35</v>
+      </c>
+      <c r="BA236">
+        <v>0</v>
+      </c>
+      <c r="BB236">
+        <v>1.29</v>
+      </c>
+      <c r="BC236">
+        <v>1.51</v>
+      </c>
+      <c r="BD236">
+        <v>1.83</v>
+      </c>
+      <c r="BE236">
+        <v>2.25</v>
+      </c>
+      <c r="BF236">
+        <v>8</v>
+      </c>
+      <c r="BG236">
+        <v>4</v>
+      </c>
+      <c r="BH236">
+        <v>7</v>
+      </c>
+      <c r="BI236">
+        <v>2</v>
+      </c>
+      <c r="BJ236">
+        <v>15</v>
+      </c>
+      <c r="BK236">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:63">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>2593518</v>
+      </c>
+      <c r="C237" t="s">
+        <v>63</v>
+      </c>
+      <c r="D237" t="s">
+        <v>64</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45081.39583333334</v>
+      </c>
+      <c r="F237">
+        <v>30</v>
+      </c>
+      <c r="G237" t="s">
+        <v>76</v>
+      </c>
+      <c r="H237" t="s">
+        <v>79</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>1</v>
+      </c>
+      <c r="K237">
+        <v>1</v>
+      </c>
+      <c r="L237">
+        <v>2</v>
+      </c>
+      <c r="M237">
+        <v>1</v>
+      </c>
+      <c r="N237">
+        <v>3</v>
+      </c>
+      <c r="O237" t="s">
+        <v>243</v>
+      </c>
+      <c r="P237" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q237">
+        <v>13</v>
+      </c>
+      <c r="R237">
+        <v>6</v>
+      </c>
+      <c r="S237">
+        <v>19</v>
+      </c>
+      <c r="T237">
+        <v>1.3</v>
+      </c>
+      <c r="U237">
+        <v>3.75</v>
+      </c>
+      <c r="V237">
+        <v>12</v>
+      </c>
+      <c r="W237">
+        <v>1.2</v>
+      </c>
+      <c r="X237">
+        <v>4.33</v>
+      </c>
+      <c r="Y237">
+        <v>1.87</v>
+      </c>
+      <c r="Z237">
+        <v>1.99</v>
+      </c>
+      <c r="AA237">
+        <v>3.5</v>
+      </c>
+      <c r="AB237">
+        <v>1.29</v>
+      </c>
+      <c r="AC237">
+        <v>1.08</v>
+      </c>
+      <c r="AD237">
+        <v>12</v>
+      </c>
+      <c r="AE237">
+        <v>21</v>
+      </c>
+      <c r="AF237">
+        <v>1.02</v>
+      </c>
+      <c r="AG237">
+        <v>17</v>
+      </c>
+      <c r="AH237">
+        <v>1.08</v>
+      </c>
+      <c r="AI237">
+        <v>7</v>
+      </c>
+      <c r="AJ237">
+        <v>1.18</v>
+      </c>
+      <c r="AK237">
+        <v>4.5</v>
+      </c>
+      <c r="AL237">
+        <v>2</v>
+      </c>
+      <c r="AM237">
+        <v>1.73</v>
+      </c>
+      <c r="AN237">
+        <v>1.04</v>
+      </c>
+      <c r="AO237">
+        <v>1.07</v>
+      </c>
+      <c r="AP237">
+        <v>4.6</v>
+      </c>
+      <c r="AQ237">
+        <v>2.29</v>
+      </c>
+      <c r="AR237">
+        <v>1.36</v>
+      </c>
+      <c r="AS237">
+        <v>2.33</v>
+      </c>
+      <c r="AT237">
+        <v>1.27</v>
+      </c>
+      <c r="AU237">
+        <v>2.21</v>
+      </c>
+      <c r="AV237">
+        <v>1.74</v>
+      </c>
+      <c r="AW237">
+        <v>3.95</v>
+      </c>
+      <c r="AX237">
+        <v>1.13</v>
+      </c>
+      <c r="AY237">
+        <v>9.75</v>
+      </c>
+      <c r="AZ237">
+        <v>7.25</v>
+      </c>
+      <c r="BA237">
+        <v>0</v>
+      </c>
+      <c r="BB237">
+        <v>1.29</v>
+      </c>
+      <c r="BC237">
+        <v>1.83</v>
+      </c>
+      <c r="BD237">
+        <v>1.85</v>
+      </c>
+      <c r="BE237">
+        <v>2.28</v>
+      </c>
+      <c r="BF237">
+        <v>9</v>
+      </c>
+      <c r="BG237">
+        <v>2</v>
+      </c>
+      <c r="BH237">
+        <v>12</v>
+      </c>
+      <c r="BI237">
+        <v>4</v>
+      </c>
+      <c r="BJ237">
+        <v>21</v>
+      </c>
+      <c r="BK237">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:63">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>2593519</v>
+      </c>
+      <c r="C238" t="s">
+        <v>63</v>
+      </c>
+      <c r="D238" t="s">
+        <v>64</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45081.39583333334</v>
+      </c>
+      <c r="F238">
+        <v>30</v>
+      </c>
+      <c r="G238" t="s">
+        <v>74</v>
+      </c>
+      <c r="H238" t="s">
+        <v>71</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>0</v>
+      </c>
+      <c r="L238">
+        <v>1</v>
+      </c>
+      <c r="M238">
+        <v>1</v>
+      </c>
+      <c r="N238">
+        <v>2</v>
+      </c>
+      <c r="O238" t="s">
+        <v>244</v>
+      </c>
+      <c r="P238" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q238">
+        <v>1</v>
+      </c>
+      <c r="R238">
+        <v>10</v>
+      </c>
+      <c r="S238">
+        <v>11</v>
+      </c>
+      <c r="T238">
+        <v>6</v>
+      </c>
+      <c r="U238">
+        <v>2.38</v>
+      </c>
+      <c r="V238">
+        <v>1.91</v>
+      </c>
+      <c r="W238">
+        <v>1.25</v>
+      </c>
+      <c r="X238">
+        <v>3.75</v>
+      </c>
+      <c r="Y238">
+        <v>2.1</v>
+      </c>
+      <c r="Z238">
+        <v>1.67</v>
+      </c>
+      <c r="AA238">
+        <v>4.75</v>
+      </c>
+      <c r="AB238">
+        <v>1.15</v>
+      </c>
+      <c r="AC238">
+        <v>7</v>
+      </c>
+      <c r="AD238">
+        <v>4.75</v>
+      </c>
+      <c r="AE238">
+        <v>1.44</v>
+      </c>
+      <c r="AF238">
+        <v>1.02</v>
+      </c>
+      <c r="AG238">
+        <v>12</v>
+      </c>
+      <c r="AH238">
+        <v>1.17</v>
+      </c>
+      <c r="AI238">
+        <v>4.5</v>
+      </c>
+      <c r="AJ238">
+        <v>1.7</v>
+      </c>
+      <c r="AK238">
+        <v>2.1</v>
+      </c>
+      <c r="AL238">
+        <v>1.91</v>
+      </c>
+      <c r="AM238">
+        <v>1.8</v>
+      </c>
+      <c r="AN238">
+        <v>2.35</v>
+      </c>
+      <c r="AO238">
+        <v>1.2</v>
+      </c>
+      <c r="AP238">
+        <v>1.1</v>
+      </c>
+      <c r="AQ238">
+        <v>1</v>
+      </c>
+      <c r="AR238">
+        <v>1.64</v>
+      </c>
+      <c r="AS238">
+        <v>1</v>
+      </c>
+      <c r="AT238">
+        <v>1.6</v>
+      </c>
+      <c r="AU238">
+        <v>1.56</v>
+      </c>
+      <c r="AV238">
+        <v>1.47</v>
+      </c>
+      <c r="AW238">
+        <v>3.03</v>
+      </c>
+      <c r="AX238">
+        <v>3.4</v>
+      </c>
+      <c r="AY238">
+        <v>6.75</v>
+      </c>
+      <c r="AZ238">
+        <v>1.41</v>
+      </c>
+      <c r="BA238">
+        <v>1.24</v>
+      </c>
+      <c r="BB238">
+        <v>1.38</v>
+      </c>
+      <c r="BC238">
+        <v>2.38</v>
+      </c>
+      <c r="BD238">
+        <v>2.13</v>
+      </c>
+      <c r="BE238">
+        <v>2.77</v>
+      </c>
+      <c r="BF238">
+        <v>4</v>
+      </c>
+      <c r="BG238">
+        <v>6</v>
+      </c>
+      <c r="BH238">
+        <v>4</v>
+      </c>
+      <c r="BI238">
+        <v>6</v>
+      </c>
+      <c r="BJ238">
+        <v>8</v>
+      </c>
+      <c r="BK238">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="239" spans="1:63">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>2593520</v>
+      </c>
+      <c r="C239" t="s">
+        <v>63</v>
+      </c>
+      <c r="D239" t="s">
+        <v>64</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45081.39583333334</v>
+      </c>
+      <c r="F239">
+        <v>30</v>
+      </c>
+      <c r="G239" t="s">
+        <v>75</v>
+      </c>
+      <c r="H239" t="s">
+        <v>78</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>1</v>
+      </c>
+      <c r="K239">
+        <v>1</v>
+      </c>
+      <c r="L239">
+        <v>0</v>
+      </c>
+      <c r="M239">
+        <v>3</v>
+      </c>
+      <c r="N239">
+        <v>3</v>
+      </c>
+      <c r="O239" t="s">
+        <v>87</v>
+      </c>
+      <c r="P239" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q239">
+        <v>2</v>
+      </c>
+      <c r="R239">
+        <v>6</v>
+      </c>
+      <c r="S239">
+        <v>8</v>
+      </c>
+      <c r="T239">
+        <v>4</v>
+      </c>
+      <c r="U239">
+        <v>2.5</v>
+      </c>
+      <c r="V239">
+        <v>2.1</v>
+      </c>
+      <c r="W239">
+        <v>1.36</v>
+      </c>
+      <c r="X239">
+        <v>3</v>
+      </c>
+      <c r="Y239">
+        <v>2.63</v>
+      </c>
+      <c r="Z239">
+        <v>1.44</v>
+      </c>
+      <c r="AA239">
+        <v>6.5</v>
+      </c>
+      <c r="AB239">
+        <v>1.1</v>
+      </c>
+      <c r="AC239">
+        <v>4.75</v>
+      </c>
+      <c r="AD239">
+        <v>4.2</v>
+      </c>
+      <c r="AE239">
+        <v>1.7</v>
+      </c>
+      <c r="AF239">
+        <v>1.02</v>
+      </c>
+      <c r="AG239">
+        <v>9.5</v>
+      </c>
+      <c r="AH239">
+        <v>1.22</v>
+      </c>
+      <c r="AI239">
+        <v>3.7</v>
+      </c>
+      <c r="AJ239">
+        <v>1.44</v>
+      </c>
+      <c r="AK239">
+        <v>2.7</v>
+      </c>
+      <c r="AL239">
+        <v>1.5</v>
+      </c>
+      <c r="AM239">
+        <v>2.5</v>
+      </c>
+      <c r="AN239">
+        <v>1.7</v>
+      </c>
+      <c r="AO239">
+        <v>1.22</v>
+      </c>
+      <c r="AP239">
+        <v>1.32</v>
+      </c>
+      <c r="AQ239">
+        <v>1.43</v>
+      </c>
+      <c r="AR239">
+        <v>1.36</v>
+      </c>
+      <c r="AS239">
+        <v>1.33</v>
+      </c>
+      <c r="AT239">
+        <v>1.47</v>
+      </c>
+      <c r="AU239">
+        <v>1.43</v>
+      </c>
+      <c r="AV239">
+        <v>1.44</v>
+      </c>
+      <c r="AW239">
+        <v>2.87</v>
+      </c>
+      <c r="AX239">
+        <v>2.85</v>
+      </c>
+      <c r="AY239">
+        <v>6</v>
+      </c>
+      <c r="AZ239">
+        <v>1.55</v>
+      </c>
+      <c r="BA239">
+        <v>1.24</v>
+      </c>
+      <c r="BB239">
+        <v>1.41</v>
+      </c>
+      <c r="BC239">
+        <v>1.78</v>
+      </c>
+      <c r="BD239">
+        <v>2.22</v>
+      </c>
+      <c r="BE239">
+        <v>2.95</v>
+      </c>
+      <c r="BF239">
+        <v>2</v>
+      </c>
+      <c r="BG239">
+        <v>8</v>
+      </c>
+      <c r="BH239">
+        <v>2</v>
+      </c>
+      <c r="BI239">
+        <v>6</v>
+      </c>
+      <c r="BJ239">
+        <v>4</v>
+      </c>
+      <c r="BK239">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="240" spans="1:63">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>2593521</v>
+      </c>
+      <c r="C240" t="s">
+        <v>63</v>
+      </c>
+      <c r="D240" t="s">
+        <v>64</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45081.39583333334</v>
+      </c>
+      <c r="F240">
+        <v>30</v>
+      </c>
+      <c r="G240" t="s">
+        <v>70</v>
+      </c>
+      <c r="H240" t="s">
+        <v>73</v>
+      </c>
+      <c r="I240">
+        <v>1</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>1</v>
+      </c>
+      <c r="L240">
+        <v>1</v>
+      </c>
+      <c r="M240">
+        <v>0</v>
+      </c>
+      <c r="N240">
+        <v>1</v>
+      </c>
+      <c r="O240" t="s">
+        <v>116</v>
+      </c>
+      <c r="P240" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q240">
+        <v>4</v>
+      </c>
+      <c r="R240">
+        <v>9</v>
+      </c>
+      <c r="S240">
+        <v>13</v>
+      </c>
+      <c r="T240">
+        <v>2.05</v>
+      </c>
+      <c r="U240">
+        <v>2.5</v>
+      </c>
+      <c r="V240">
+        <v>4.5</v>
+      </c>
+      <c r="W240">
+        <v>1.3</v>
+      </c>
+      <c r="X240">
+        <v>3.4</v>
+      </c>
+      <c r="Y240">
+        <v>2.5</v>
+      </c>
+      <c r="Z240">
+        <v>1.5</v>
+      </c>
+      <c r="AA240">
+        <v>5.5</v>
+      </c>
+      <c r="AB240">
+        <v>1.13</v>
+      </c>
+      <c r="AC240">
+        <v>1.62</v>
+      </c>
+      <c r="AD240">
+        <v>4.75</v>
+      </c>
+      <c r="AE240">
+        <v>4.75</v>
+      </c>
+      <c r="AF240">
+        <v>1.04</v>
+      </c>
+      <c r="AG240">
+        <v>10</v>
+      </c>
+      <c r="AH240">
+        <v>1.18</v>
+      </c>
+      <c r="AI240">
+        <v>4.33</v>
+      </c>
+      <c r="AJ240">
+        <v>1.44</v>
+      </c>
+      <c r="AK240">
+        <v>2.7</v>
+      </c>
+      <c r="AL240">
+        <v>1.57</v>
+      </c>
+      <c r="AM240">
+        <v>2.25</v>
+      </c>
+      <c r="AN240">
+        <v>1.1</v>
+      </c>
+      <c r="AO240">
+        <v>1.2</v>
+      </c>
+      <c r="AP240">
+        <v>2.3</v>
+      </c>
+      <c r="AQ240">
+        <v>1.64</v>
+      </c>
+      <c r="AR240">
+        <v>0.79</v>
+      </c>
+      <c r="AS240">
+        <v>1.73</v>
+      </c>
+      <c r="AT240">
+        <v>0.73</v>
+      </c>
+      <c r="AU240">
+        <v>1.61</v>
+      </c>
+      <c r="AV240">
+        <v>1.44</v>
+      </c>
+      <c r="AW240">
+        <v>3.05</v>
+      </c>
+      <c r="AX240">
+        <v>1.37</v>
+      </c>
+      <c r="AY240">
+        <v>6.5</v>
+      </c>
+      <c r="AZ240">
+        <v>3.75</v>
+      </c>
+      <c r="BA240">
+        <v>1.39</v>
+      </c>
+      <c r="BB240">
+        <v>1.61</v>
+      </c>
+      <c r="BC240">
+        <v>2</v>
+      </c>
+      <c r="BD240">
+        <v>2.52</v>
+      </c>
+      <c r="BE240">
+        <v>4.25</v>
+      </c>
+      <c r="BF240">
+        <v>5</v>
+      </c>
+      <c r="BG240">
+        <v>3</v>
+      </c>
+      <c r="BH240">
+        <v>3</v>
+      </c>
+      <c r="BI240">
+        <v>13</v>
+      </c>
+      <c r="BJ240">
+        <v>8</v>
+      </c>
+      <c r="BK240">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="241" spans="1:63">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>2593523</v>
+      </c>
+      <c r="C241" t="s">
+        <v>63</v>
+      </c>
+      <c r="D241" t="s">
+        <v>64</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45081.39583333334</v>
+      </c>
+      <c r="F241">
+        <v>30</v>
+      </c>
+      <c r="G241" t="s">
+        <v>65</v>
+      </c>
+      <c r="H241" t="s">
+        <v>72</v>
+      </c>
+      <c r="I241">
+        <v>1</v>
+      </c>
+      <c r="J241">
+        <v>1</v>
+      </c>
+      <c r="K241">
+        <v>2</v>
+      </c>
+      <c r="L241">
+        <v>1</v>
+      </c>
+      <c r="M241">
+        <v>2</v>
+      </c>
+      <c r="N241">
+        <v>3</v>
+      </c>
+      <c r="O241" t="s">
+        <v>245</v>
+      </c>
+      <c r="P241" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q241">
+        <v>6</v>
+      </c>
+      <c r="R241">
+        <v>5</v>
+      </c>
+      <c r="S241">
+        <v>11</v>
+      </c>
+      <c r="T241">
+        <v>3.2</v>
+      </c>
+      <c r="U241">
+        <v>2.5</v>
+      </c>
+      <c r="V241">
+        <v>2.6</v>
+      </c>
+      <c r="W241">
+        <v>1.33</v>
+      </c>
+      <c r="X241">
+        <v>3.25</v>
+      </c>
+      <c r="Y241">
+        <v>2.5</v>
+      </c>
+      <c r="Z241">
+        <v>1.5</v>
+      </c>
+      <c r="AA241">
+        <v>5.5</v>
+      </c>
+      <c r="AB241">
+        <v>1.13</v>
+      </c>
+      <c r="AC241">
+        <v>3.1</v>
+      </c>
+      <c r="AD241">
+        <v>3.8</v>
+      </c>
+      <c r="AE241">
+        <v>2.15</v>
+      </c>
+      <c r="AF241">
+        <v>1.04</v>
+      </c>
+      <c r="AG241">
+        <v>8.5</v>
+      </c>
+      <c r="AH241">
+        <v>1.2</v>
+      </c>
+      <c r="AI241">
+        <v>4.2</v>
+      </c>
+      <c r="AJ241">
+        <v>1.44</v>
+      </c>
+      <c r="AK241">
+        <v>2.7</v>
+      </c>
+      <c r="AL241">
+        <v>1.4</v>
+      </c>
+      <c r="AM241">
+        <v>2.75</v>
+      </c>
+      <c r="AN241">
+        <v>1.52</v>
+      </c>
+      <c r="AO241">
+        <v>1.22</v>
+      </c>
+      <c r="AP241">
+        <v>1.45</v>
+      </c>
+      <c r="AQ241">
+        <v>1.57</v>
+      </c>
+      <c r="AR241">
+        <v>1.07</v>
+      </c>
+      <c r="AS241">
+        <v>1.47</v>
+      </c>
+      <c r="AT241">
+        <v>1.2</v>
+      </c>
+      <c r="AU241">
+        <v>1.35</v>
+      </c>
+      <c r="AV241">
+        <v>1.64</v>
+      </c>
+      <c r="AW241">
+        <v>2.99</v>
+      </c>
+      <c r="AX241">
+        <v>2.1</v>
+      </c>
+      <c r="AY241">
+        <v>5.75</v>
+      </c>
+      <c r="AZ241">
+        <v>1.95</v>
+      </c>
+      <c r="BA241">
+        <v>1.23</v>
+      </c>
+      <c r="BB241">
+        <v>1.43</v>
+      </c>
+      <c r="BC241">
+        <v>2.25</v>
+      </c>
+      <c r="BD241">
+        <v>2.21</v>
+      </c>
+      <c r="BE241">
+        <v>2.95</v>
+      </c>
+      <c r="BF241">
+        <v>6</v>
+      </c>
+      <c r="BG241">
+        <v>7</v>
+      </c>
+      <c r="BH241">
+        <v>1</v>
+      </c>
+      <c r="BI241">
+        <v>2</v>
+      </c>
+      <c r="BJ241">
+        <v>7</v>
+      </c>
+      <c r="BK241">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
